--- a/data listi2.xlsx
+++ b/data listi2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding\Big project Hakbaz\performence_analysis_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\נעה\PycharmProjects\new_finish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4EAFE8-9CEC-404F-8611-3B35EF28B2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FFB8CD-5115-4E13-9A3C-6DCD204BA424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="890" windowWidth="16590" windowHeight="7270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingredients" sheetId="2" r:id="rId1"/>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="283">
   <si>
     <t>Dish</t>
   </si>
@@ -343,9 +365,6 @@
   </si>
   <si>
     <t>BBQ Pulled Chicken</t>
-  </si>
-  <si>
-    <t>Chicken Breasts</t>
   </si>
   <si>
     <t>BBQ Sauce</t>
@@ -966,7 +985,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1026,11 +1045,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1072,6 +1102,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1294,7 +1328,9 @@
   </sheetPr>
   <dimension ref="A1:P199"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="C173" sqref="C173"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1303,25 +1339,25 @@
   <sheetData>
     <row r="1" spans="1:16" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
@@ -1344,13 +1380,13 @@
         <v>2.68</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G165" si="0">C2*0.25+D2*0.3+F2*0.1+E2*0.35</f>
+        <f t="shared" ref="G2:G166" si="0">C2*0.25+D2*0.3+F2*0.1+E2*0.35</f>
         <v>9.504999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" s="8">
         <v>2</v>
@@ -1374,7 +1410,7 @@
     </row>
     <row r="4" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B4" s="8">
         <v>5</v>
@@ -1403,7 +1439,7 @@
     </row>
     <row r="5" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B5" s="8">
         <v>3</v>
@@ -1461,7 +1497,7 @@
     </row>
     <row r="7" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B7" s="8">
         <v>3</v>
@@ -1490,7 +1526,7 @@
     </row>
     <row r="8" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B8" s="8">
         <v>3</v>
@@ -1519,7 +1555,7 @@
     </row>
     <row r="9" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B9" s="8">
         <v>4</v>
@@ -1548,7 +1584,7 @@
     </row>
     <row r="10" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B10" s="8">
         <v>4</v>
@@ -1604,9 +1640,9 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B12" s="8">
         <v>13</v>
@@ -1635,7 +1671,7 @@
     </row>
     <row r="13" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B13" s="8">
         <v>4</v>
@@ -1664,7 +1700,7 @@
     </row>
     <row r="14" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B14" s="8">
         <v>12</v>
@@ -1693,7 +1729,7 @@
     </row>
     <row r="15" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B15" s="8">
         <v>5</v>
@@ -1722,7 +1758,7 @@
     </row>
     <row r="16" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="8">
         <v>9</v>
@@ -1780,7 +1816,7 @@
     </row>
     <row r="18" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B18" s="8">
         <v>14</v>
@@ -1809,7 +1845,7 @@
     </row>
     <row r="19" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B19" s="8">
         <v>15</v>
@@ -1838,7 +1874,7 @@
     </row>
     <row r="20" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B20" s="8">
         <v>3</v>
@@ -1867,7 +1903,7 @@
     </row>
     <row r="21" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B21" s="8">
         <v>20</v>
@@ -1896,7 +1932,7 @@
     </row>
     <row r="22" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B22" s="8">
         <v>8</v>
@@ -1954,7 +1990,7 @@
     </row>
     <row r="24" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" s="8">
         <v>4</v>
@@ -1983,7 +2019,7 @@
     </row>
     <row r="25" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B25" s="8">
         <v>12</v>
@@ -2070,7 +2106,7 @@
     </row>
     <row r="28" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B28" s="8">
         <v>10</v>
@@ -2147,7 +2183,7 @@
     </row>
     <row r="31" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B31" s="8">
         <v>14</v>
@@ -2176,7 +2212,7 @@
     </row>
     <row r="32" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B32" s="8">
         <v>8</v>
@@ -2234,7 +2270,7 @@
     </row>
     <row r="34" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B34" s="8">
         <v>5</v>
@@ -2263,7 +2299,7 @@
     </row>
     <row r="35" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B35" s="8">
         <v>12</v>
@@ -2292,7 +2328,7 @@
     </row>
     <row r="36" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B36" s="8">
         <v>5</v>
@@ -2321,7 +2357,7 @@
     </row>
     <row r="37" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B37" s="8">
         <v>5</v>
@@ -2350,7 +2386,7 @@
     </row>
     <row r="38" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B38" s="8">
         <v>13</v>
@@ -2379,7 +2415,7 @@
     </row>
     <row r="39" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B39" s="8">
         <v>2</v>
@@ -2437,7 +2473,7 @@
     </row>
     <row r="41" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B41" s="8">
         <v>7</v>
@@ -2495,7 +2531,7 @@
     </row>
     <row r="43" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B43" s="8">
         <v>5</v>
@@ -2553,7 +2589,7 @@
     </row>
     <row r="45" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B45" s="8">
         <v>5</v>
@@ -2640,7 +2676,7 @@
     </row>
     <row r="48" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B48" s="8">
         <v>18</v>
@@ -2669,7 +2705,7 @@
     </row>
     <row r="49" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B49" s="8">
         <v>15</v>
@@ -2698,7 +2734,7 @@
     </row>
     <row r="50" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B50" s="8">
         <v>12</v>
@@ -2727,7 +2763,7 @@
     </row>
     <row r="51" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B51" s="8">
         <v>12</v>
@@ -2756,7 +2792,7 @@
     </row>
     <row r="52" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B52" s="8">
         <v>9</v>
@@ -2785,7 +2821,7 @@
     </row>
     <row r="53" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B53" s="8">
         <v>7</v>
@@ -2843,7 +2879,7 @@
     </row>
     <row r="55" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B55" s="8">
         <v>8</v>
@@ -2901,7 +2937,7 @@
     </row>
     <row r="57" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B57" s="8">
         <v>12</v>
@@ -2949,7 +2985,7 @@
     </row>
     <row r="59" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B59" s="8">
         <v>7</v>
@@ -3045,7 +3081,7 @@
     </row>
     <row r="63" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B63" s="8">
         <v>3</v>
@@ -3069,7 +3105,7 @@
     </row>
     <row r="64" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B64" s="8">
         <v>5</v>
@@ -3141,7 +3177,7 @@
     </row>
     <row r="67" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B67" s="8">
         <v>6</v>
@@ -3285,7 +3321,7 @@
     </row>
     <row r="73" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B73" s="8">
         <v>7</v>
@@ -3309,7 +3345,7 @@
     </row>
     <row r="74" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B74" s="8">
         <v>18</v>
@@ -3333,7 +3369,7 @@
     </row>
     <row r="75" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B75" s="8">
         <v>70</v>
@@ -3381,7 +3417,7 @@
     </row>
     <row r="77" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B77" s="8">
         <v>7</v>
@@ -3501,7 +3537,7 @@
     </row>
     <row r="82" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B82" s="8">
         <v>30</v>
@@ -3597,7 +3633,7 @@
     </row>
     <row r="86" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B86" s="8">
         <v>7</v>
@@ -3621,7 +3657,7 @@
     </row>
     <row r="87" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B87" s="8">
         <v>10</v>
@@ -3645,7 +3681,7 @@
     </row>
     <row r="88" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A88" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B88" s="8">
         <v>15</v>
@@ -3669,7 +3705,7 @@
     </row>
     <row r="89" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A89" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B89" s="8">
         <v>20</v>
@@ -3717,7 +3753,7 @@
     </row>
     <row r="91" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A91" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B91" s="8">
         <v>8</v>
@@ -3765,7 +3801,7 @@
     </row>
     <row r="93" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A93" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B93" s="8">
         <v>5</v>
@@ -3789,7 +3825,7 @@
     </row>
     <row r="94" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A94" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B94" s="8">
         <v>7</v>
@@ -3813,7 +3849,7 @@
     </row>
     <row r="95" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A95" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B95" s="8">
         <v>14</v>
@@ -3837,7 +3873,7 @@
     </row>
     <row r="96" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A96" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B96" s="8">
         <v>12</v>
@@ -3861,7 +3897,7 @@
     </row>
     <row r="97" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A97" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B97" s="8">
         <v>13</v>
@@ -3885,7 +3921,7 @@
     </row>
     <row r="98" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A98" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B98" s="8">
         <v>5</v>
@@ -3909,7 +3945,7 @@
     </row>
     <row r="99" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A99" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B99" s="8">
         <v>30</v>
@@ -4005,7 +4041,7 @@
     </row>
     <row r="103" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A103" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B103" s="9">
         <v>12</v>
@@ -4077,7 +4113,7 @@
     </row>
     <row r="106" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A106" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B106" s="9">
         <v>70</v>
@@ -4101,7 +4137,7 @@
     </row>
     <row r="107" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A107" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B107" s="9">
         <v>90</v>
@@ -4125,7 +4161,7 @@
     </row>
     <row r="108" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A108" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B108" s="9">
         <v>14</v>
@@ -4173,7 +4209,7 @@
     </row>
     <row r="110" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A110" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B110" s="9">
         <v>8</v>
@@ -4269,7 +4305,7 @@
     </row>
     <row r="114" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A114" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B114" s="9">
         <v>25</v>
@@ -4341,7 +4377,7 @@
     </row>
     <row r="117" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A117" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B117" s="9">
         <v>6</v>
@@ -4389,7 +4425,7 @@
     </row>
     <row r="119" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A119" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B119" s="9">
         <v>7</v>
@@ -4437,7 +4473,7 @@
     </row>
     <row r="121" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A121" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B121" s="9">
         <v>4</v>
@@ -4485,7 +4521,7 @@
     </row>
     <row r="123" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A123" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B123" s="9">
         <v>12</v>
@@ -4509,7 +4545,7 @@
     </row>
     <row r="124" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A124" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B124" s="9">
         <v>25</v>
@@ -4557,7 +4593,7 @@
     </row>
     <row r="126" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A126" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B126" s="9">
         <v>300</v>
@@ -4581,7 +4617,7 @@
     </row>
     <row r="127" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A127" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B127" s="9">
         <v>5</v>
@@ -4605,7 +4641,7 @@
     </row>
     <row r="128" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A128" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B128" s="9">
         <v>3</v>
@@ -4629,7 +4665,7 @@
     </row>
     <row r="129" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A129" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B129" s="9">
         <v>80</v>
@@ -4653,7 +4689,7 @@
     </row>
     <row r="130" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A130" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B130" s="9">
         <v>90</v>
@@ -4677,7 +4713,7 @@
     </row>
     <row r="131" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A131" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B131" s="9">
         <v>100</v>
@@ -4701,7 +4737,7 @@
     </row>
     <row r="132" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A132" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B132" s="9">
         <v>110</v>
@@ -4749,7 +4785,7 @@
     </row>
     <row r="134" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A134" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B134" s="9">
         <v>50</v>
@@ -4773,7 +4809,7 @@
     </row>
     <row r="135" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A135" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B135" s="9">
         <v>6</v>
@@ -4797,7 +4833,7 @@
     </row>
     <row r="136" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A136" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B136" s="9">
         <v>12</v>
@@ -4821,7 +4857,7 @@
     </row>
     <row r="137" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A137" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B137" s="9">
         <v>70</v>
@@ -4845,7 +4881,7 @@
     </row>
     <row r="138" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A138" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B138" s="9">
         <v>75</v>
@@ -4869,7 +4905,7 @@
     </row>
     <row r="139" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A139" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B139" s="9">
         <v>120</v>
@@ -4893,7 +4929,7 @@
     </row>
     <row r="140" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A140" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B140" s="9">
         <v>8</v>
@@ -4917,7 +4953,7 @@
     </row>
     <row r="141" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A141" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B141" s="9">
         <v>10</v>
@@ -4941,7 +4977,7 @@
     </row>
     <row r="142" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A142" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B142" s="9">
         <v>7</v>
@@ -4965,7 +5001,7 @@
     </row>
     <row r="143" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A143" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B143" s="9">
         <v>6</v>
@@ -4989,7 +5025,7 @@
     </row>
     <row r="144" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A144" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B144" s="9">
         <v>100</v>
@@ -5013,7 +5049,7 @@
     </row>
     <row r="145" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A145" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B145" s="9">
         <v>9</v>
@@ -5037,7 +5073,7 @@
     </row>
     <row r="146" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A146" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B146" s="9">
         <v>50</v>
@@ -5157,7 +5193,7 @@
     </row>
     <row r="151" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A151" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B151" s="13">
         <v>6</v>
@@ -5181,7 +5217,7 @@
     </row>
     <row r="152" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A152" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B152" s="13">
         <v>3</v>
@@ -5279,7 +5315,7 @@
     </row>
     <row r="156" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A156" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B156" s="13">
         <v>3</v>
@@ -5329,7 +5365,7 @@
     </row>
     <row r="158" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A158" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B158" s="13">
         <v>15</v>
@@ -5379,7 +5415,7 @@
     </row>
     <row r="160" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A160" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B160" s="13">
         <v>30</v>
@@ -5453,7 +5489,7 @@
     </row>
     <row r="163" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A163" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B163" s="13">
         <v>5</v>
@@ -5477,7 +5513,7 @@
     </row>
     <row r="164" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B164" s="13">
         <v>6</v>
@@ -5502,7 +5538,7 @@
     </row>
     <row r="165" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A165" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B165" s="13">
         <v>2</v>
@@ -5525,7 +5561,29 @@
       </c>
       <c r="K165" s="14"/>
     </row>
-    <row r="166" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>95</v>
+      </c>
+      <c r="B166" s="17">
+        <v>3</v>
+      </c>
+      <c r="C166" s="17">
+        <v>4</v>
+      </c>
+      <c r="D166" s="17">
+        <v>17</v>
+      </c>
+      <c r="E166" s="17">
+        <v>7</v>
+      </c>
+      <c r="F166" s="17">
+        <v>6</v>
+      </c>
+      <c r="G166" s="18">
+        <f t="shared" si="0"/>
+        <v>9.1499999999999986</v>
+      </c>
       <c r="K166" s="14"/>
     </row>
     <row r="168" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
@@ -5606,17 +5664,19 @@
   </sheetPr>
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.90625" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" customWidth="1"/>
+    <col min="1" max="1" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14" x14ac:dyDescent="0.25">
@@ -5661,9 +5721,9 @@
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="3" cm="1">
         <f t="array" ref="G2">SUM(VLOOKUP(B2:F2, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>6.7144999999999992</v>
+        <v>23.216499999999996</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14" x14ac:dyDescent="0.3">
@@ -6334,9 +6394,9 @@
       <c r="F30" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G30" s="3" t="e">
+      <c r="G30" s="3" cm="1">
         <f t="array" ref="G30">SUM(VLOOKUP(B30:F30, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>#N/A</v>
+        <v>23.378</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6368,34 +6428,34 @@
         <v>102</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G32" s="3" t="e">
+      <c r="G32" s="3">
         <f t="array" ref="G32">SUM(VLOOKUP(B32:F32, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>#N/A</v>
+        <v>7.6204999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>11</v>
@@ -6404,7 +6464,7 @@
         <v>23</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G33" s="3">
         <f t="array" ref="G33">SUM(VLOOKUP(B33:F33, Ingredients!$A$2:$G$190, 7, FALSE))</f>
@@ -6413,19 +6473,19 @@
     </row>
     <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>90</v>
@@ -6437,10 +6497,10 @@
     </row>
     <row r="35" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>11</v>
@@ -6452,7 +6512,7 @@
         <v>23</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G35" s="3">
         <f t="array" ref="G35">SUM(VLOOKUP(B35:F35, Ingredients!$A$2:$G$190, 7, FALSE))</f>
@@ -6461,7 +6521,7 @@
     </row>
     <row r="36" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>14</v>
@@ -6476,7 +6536,7 @@
         <v>96</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G36" s="3">
         <f t="array" ref="G36">SUM(VLOOKUP(B36:F36, Ingredients!$A$2:$G$190, 7, FALSE))</f>
@@ -6485,16 +6545,16 @@
     </row>
     <row r="37" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>14</v>
@@ -6509,7 +6569,7 @@
     </row>
     <row r="38" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>11</v>
@@ -6518,13 +6578,13 @@
         <v>23</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="G38" s="3">
         <f t="array" ref="G38">SUM(VLOOKUP(B38:F38, Ingredients!$A$2:$G$190, 7, FALSE))</f>
@@ -6533,7 +6593,7 @@
     </row>
     <row r="39" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>92</v>
@@ -6545,7 +6605,7 @@
         <v>100</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>57</v>
@@ -6557,7 +6617,7 @@
     </row>
     <row r="40" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>73</v>
@@ -6569,7 +6629,7 @@
         <v>23</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>90</v>
@@ -6581,13 +6641,13 @@
     </row>
     <row r="41" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>90</v>
@@ -6605,7 +6665,7 @@
     </row>
     <row r="42" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>17</v>
@@ -6614,7 +6674,7 @@
         <v>50</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>100</v>
@@ -6629,7 +6689,7 @@
     </row>
     <row r="43" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>62</v>
@@ -6638,10 +6698,10 @@
         <v>11</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>23</v>
@@ -6653,19 +6713,19 @@
     </row>
     <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>42</v>
@@ -6677,7 +6737,7 @@
     </row>
     <row r="45" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>14</v>
@@ -6689,7 +6749,7 @@
         <v>73</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>57</v>
@@ -6701,7 +6761,7 @@
     </row>
     <row r="46" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>71</v>
@@ -6716,7 +6776,7 @@
         <v>68</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G46" s="3">
         <f t="array" ref="G46">SUM(VLOOKUP(B46:F46, Ingredients!$A$2:$G$190, 7, FALSE))</f>
@@ -6725,10 +6785,10 @@
     </row>
     <row r="47" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>48</v>
@@ -6737,10 +6797,10 @@
         <v>90</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G47" s="3">
         <f t="array" ref="G47">SUM(VLOOKUP(B47:F47, Ingredients!$A$2:$G$190, 7, FALSE))</f>
@@ -6749,13 +6809,13 @@
     </row>
     <row r="48" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>90</v>
@@ -6773,7 +6833,7 @@
     </row>
     <row r="49" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>71</v>
@@ -6782,13 +6842,13 @@
         <v>86</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G49" s="3">
         <f t="array" ref="G49">SUM(VLOOKUP(B49:F49, Ingredients!$A$2:$G$190, 7, FALSE))</f>
@@ -6797,7 +6857,7 @@
     </row>
     <row r="50" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>50</v>
@@ -6812,7 +6872,7 @@
         <v>44</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G50" s="3">
         <f t="array" ref="G50">SUM(VLOOKUP(B50:F50, Ingredients!$A$2:$G$190, 7, FALSE))</f>
@@ -6821,7 +6881,7 @@
     </row>
     <row r="51" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>8</v>
@@ -6836,7 +6896,7 @@
         <v>18</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G51" s="3">
         <f t="array" ref="G51">SUM(VLOOKUP(B51:F51, Ingredients!$A$2:$G$190, 7, FALSE))</f>
@@ -6845,7 +6905,7 @@
     </row>
     <row r="52" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>50</v>
@@ -6857,10 +6917,10 @@
         <v>73</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G52" s="3">
         <f t="array" ref="G52">SUM(VLOOKUP(B52:F52, Ingredients!$A$2:$G$190, 7, FALSE))</f>
@@ -6869,7 +6929,7 @@
     </row>
     <row r="53" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>75</v>
@@ -6884,7 +6944,7 @@
         <v>31</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G53" s="3">
         <f t="array" ref="G53">SUM(VLOOKUP(B53:F53, Ingredients!$A$2:$G$190, 7, FALSE))</f>
@@ -6893,13 +6953,13 @@
     </row>
     <row r="54" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>84</v>
@@ -6908,7 +6968,7 @@
         <v>48</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G54" s="3">
         <f t="array" ref="G54">SUM(VLOOKUP(B54:F54, Ingredients!$A$2:$G$190, 7, FALSE))</f>
@@ -6917,10 +6977,10 @@
     </row>
     <row r="55" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>73</v>
@@ -6941,13 +7001,13 @@
     </row>
     <row r="56" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>23</v>
@@ -6965,10 +7025,10 @@
     </row>
     <row r="57" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>68</v>
@@ -6980,7 +7040,7 @@
         <v>16</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G57" s="3">
         <f t="array" ref="G57">SUM(VLOOKUP(B57:F57, Ingredients!$A$2:$G$190, 7, FALSE))</f>
@@ -6989,16 +7049,16 @@
     </row>
     <row r="58" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C58" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>160</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>17</v>
@@ -7013,10 +7073,10 @@
     </row>
     <row r="59" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>22</v>
@@ -7025,10 +7085,10 @@
         <v>57</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G59" s="3">
         <f t="array" ref="G59">SUM(VLOOKUP(B59:F59, Ingredients!$A$2:$G$190, 7, FALSE))</f>
@@ -7037,19 +7097,19 @@
     </row>
     <row r="60" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>23</v>
@@ -7061,7 +7121,7 @@
     </row>
     <row r="61" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>50</v>
@@ -7076,7 +7136,7 @@
         <v>96</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G61" s="3">
         <f t="array" ref="G61">SUM(VLOOKUP(B61:F61, Ingredients!$A$2:$G$190, 7, FALSE))</f>
@@ -7085,7 +7145,7 @@
     </row>
     <row r="62" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>14</v>
@@ -7109,7 +7169,7 @@
     </row>
     <row r="63" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>50</v>
@@ -7133,7 +7193,7 @@
     </row>
     <row r="64" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>50</v>
@@ -7157,10 +7217,10 @@
     </row>
     <row r="65" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>36</v>
@@ -7181,13 +7241,13 @@
     </row>
     <row r="66" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>10</v>
@@ -7205,7 +7265,7 @@
     </row>
     <row r="67" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>73</v>
@@ -7220,7 +7280,7 @@
         <v>42</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G67" s="3">
         <f t="array" ref="G67">SUM(VLOOKUP(B67:F67, Ingredients!$A$2:$G$190, 7, FALSE))</f>
@@ -7229,7 +7289,7 @@
     </row>
     <row r="68" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>14</v>
@@ -7253,7 +7313,7 @@
     </row>
     <row r="69" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>8</v>
@@ -7277,7 +7337,7 @@
     </row>
     <row r="70" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>14</v>
@@ -7292,7 +7352,7 @@
         <v>17</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G70" s="3">
         <f t="array" ref="G70">SUM(VLOOKUP(B70:F70, Ingredients!$A$2:$G$190, 7, FALSE))</f>
@@ -7301,10 +7361,10 @@
     </row>
     <row r="71" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>68</v>
@@ -7325,13 +7385,13 @@
     </row>
     <row r="72" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>39</v>
@@ -7349,7 +7409,7 @@
     </row>
     <row r="73" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>98</v>
@@ -7364,7 +7424,7 @@
         <v>45</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G73" s="3">
         <f t="array" ref="G73">SUM(VLOOKUP(B73:F73, Ingredients!$A$2:$G$190, 7, FALSE))</f>
@@ -7373,7 +7433,7 @@
     </row>
     <row r="74" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>15</v>
@@ -7382,13 +7442,13 @@
         <v>40</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G74" s="3">
         <f t="array" ref="G74">SUM(VLOOKUP(B74:F74, Ingredients!$A$2:$G$190, 7, FALSE))</f>
@@ -7397,7 +7457,7 @@
     </row>
     <row r="75" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>100</v>
@@ -7409,10 +7469,10 @@
         <v>26</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G75" s="3">
         <f t="array" ref="G75">SUM(VLOOKUP(B75:F75, Ingredients!$A$2:$G$190, 7, FALSE))</f>
@@ -7421,13 +7481,13 @@
     </row>
     <row r="76" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>29</v>
@@ -7436,7 +7496,7 @@
         <v>39</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G76" s="3">
         <f t="array" ref="G76">SUM(VLOOKUP(B76:F76, Ingredients!$A$2:$G$190, 7, FALSE))</f>
@@ -7445,13 +7505,13 @@
     </row>
     <row r="77" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>84</v>
@@ -7469,7 +7529,7 @@
     </row>
     <row r="78" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>14</v>
@@ -7481,10 +7541,10 @@
         <v>31</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G78" s="3">
         <f t="array" ref="G78">SUM(VLOOKUP(B78:F78, Ingredients!$A$2:$G$190, 7, FALSE))</f>
@@ -7493,7 +7553,7 @@
     </row>
     <row r="79" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>73</v>
@@ -7508,7 +7568,7 @@
         <v>42</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G79" s="3">
         <f t="array" ref="G79">SUM(VLOOKUP(B79:F79, Ingredients!$A$2:$G$190, 7, FALSE))</f>
@@ -7517,7 +7577,7 @@
     </row>
     <row r="80" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>75</v>
@@ -7529,7 +7589,7 @@
         <v>28</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>18</v>
@@ -7541,10 +7601,10 @@
     </row>
     <row r="81" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>50</v>
@@ -7565,10 +7625,10 @@
     </row>
     <row r="82" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>8</v>
@@ -7580,7 +7640,7 @@
         <v>32</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G82" s="3">
         <f t="array" ref="G82">SUM(VLOOKUP(B82:F82, Ingredients!$A$2:$G$190, 7, FALSE))</f>
@@ -7589,7 +7649,7 @@
     </row>
     <row r="83" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>98</v>
@@ -7604,7 +7664,7 @@
         <v>90</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G83" s="3">
         <f t="array" ref="G83">SUM(VLOOKUP(B83:F83, Ingredients!$A$2:$G$190, 7, FALSE))</f>
@@ -7613,10 +7673,10 @@
     </row>
     <row r="84" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>68</v>
@@ -7625,7 +7685,7 @@
         <v>23</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>72</v>
@@ -7637,7 +7697,7 @@
     </row>
     <row r="85" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>86</v>
@@ -7652,7 +7712,7 @@
         <v>23</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G85" s="3">
         <f t="array" ref="G85">SUM(VLOOKUP(B85:F85, Ingredients!$A$2:$G$190, 7, FALSE))</f>
@@ -7661,7 +7721,7 @@
     </row>
     <row r="86" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>98</v>
@@ -7673,7 +7733,7 @@
         <v>17</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>32</v>
@@ -7685,16 +7745,16 @@
     </row>
     <row r="87" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>40</v>
@@ -7709,13 +7769,13 @@
     </row>
     <row r="88" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>44</v>
@@ -7724,19 +7784,19 @@
         <v>37</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G88" s="3">
         <f t="array" ref="G88">SUM(VLOOKUP(B88:F88, Ingredients!$A$2:$G$190, 7, FALSE))</f>
         <v>9.9</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>84</v>
@@ -7745,7 +7805,7 @@
         <v>73</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>68</v>
@@ -7757,10 +7817,10 @@
     </row>
     <row r="90" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>68</v>
@@ -7772,7 +7832,7 @@
         <v>72</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G90" s="3">
         <f t="array" ref="G90">SUM(VLOOKUP(B90:F90, Ingredients!$A$2:$G$190, 7, FALSE))</f>
@@ -7781,10 +7841,10 @@
     </row>
     <row r="91" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>48</v>
@@ -7805,10 +7865,10 @@
     </row>
     <row r="92" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>53</v>
@@ -7817,7 +7877,7 @@
         <v>17</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>73</v>
@@ -7829,19 +7889,19 @@
     </row>
     <row r="93" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>51</v>
@@ -7853,19 +7913,19 @@
     </row>
     <row r="94" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="C94" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>68</v>
@@ -7877,13 +7937,13 @@
     </row>
     <row r="95" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>26</v>
@@ -7901,10 +7961,10 @@
     </row>
     <row r="96" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>73</v>
@@ -7925,7 +7985,7 @@
     </row>
     <row r="97" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>98</v>
@@ -7937,7 +7997,7 @@
         <v>8</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>17</v>
@@ -7949,16 +8009,16 @@
     </row>
     <row r="98" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="C98" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>39</v>
@@ -7973,10 +8033,10 @@
     </row>
     <row r="99" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>16</v>
@@ -7985,10 +8045,10 @@
         <v>18</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G99" s="3">
         <f t="array" ref="G99">SUM(VLOOKUP(B99:F99, Ingredients!$A$2:$G$190, 7, FALSE))</f>
@@ -7997,10 +8057,10 @@
     </row>
     <row r="100" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>42</v>
@@ -8009,7 +8069,7 @@
         <v>23</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>57</v>
@@ -8021,10 +8081,10 @@
     </row>
     <row r="101" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>48</v>
@@ -8036,7 +8096,7 @@
         <v>23</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G101" s="3">
         <f t="array" ref="G101">SUM(VLOOKUP(B101:F101, Ingredients!$A$2:$G$190, 7, FALSE))</f>
@@ -8045,13 +8105,13 @@
     </row>
     <row r="102" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="C102" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>68</v>
@@ -8069,19 +8129,19 @@
     </row>
     <row r="103" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>242</v>
-      </c>
       <c r="C103" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>73</v>
@@ -8093,10 +8153,10 @@
     </row>
     <row r="104" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>48</v>

--- a/data listi2.xlsx
+++ b/data listi2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\נעה\PycharmProjects\new_finish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FFB8CD-5115-4E13-9A3C-6DCD204BA424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C19A5E-3678-4763-BB0E-852942EA8126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1060,16 +1060,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1328,8 +1325,8 @@
   </sheetPr>
   <dimension ref="A1:P199"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C173" sqref="C173"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1338,4175 +1335,4175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>12</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>0.2</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>2.81</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>23.84</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>2.68</v>
       </c>
-      <c r="G2" s="8">
-        <f t="shared" ref="G2:G166" si="0">C2*0.25+D2*0.3+F2*0.1+E2*0.35</f>
+      <c r="G2" s="7">
+        <f>C2*0.25+D2*0.3+F2*0.1+E2*0.35</f>
         <v>9.504999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>2</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>1.82</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>17.77</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>0.75</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>1.7</v>
       </c>
-      <c r="G3" s="8">
-        <f t="shared" si="0"/>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G166" si="0">C3*0.25+D3*0.3+F3*0.1+E3*0.35</f>
         <v>6.2184999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>5</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>9</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>68.92</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>4.28</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <f t="shared" si="0"/>
         <v>24.834</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>3</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>2.97</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>6.33</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>0.79</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>0.85</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <f t="shared" si="0"/>
         <v>3.0030000000000001</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>7</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>5.42</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>14.45</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>0.4</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>5.67</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <f t="shared" si="0"/>
         <v>6.3969999999999994</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>3</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>3.31</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>20.7</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>5.86</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>0</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <f t="shared" si="0"/>
         <v>9.0884999999999998</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="P7" s="10"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>3</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>2.13</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>3.67</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>0.52</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>0.87</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <f t="shared" si="0"/>
         <v>1.9024999999999999</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>4</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>5.56</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>63.94</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>7.43</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>1.71</v>
       </c>
-      <c r="G9" s="8">
-        <f t="shared" si="0"/>
+      <c r="G9" s="7">
+        <f>C9*0.25+D9*0.3+F9*0.1+E9*0.35</f>
         <v>23.343499999999999</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>4</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>3.75</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>14.89</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>0.94</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>0</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <f t="shared" si="0"/>
         <v>5.7334999999999994</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>4</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>3.15</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>2.65</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>0.64</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>0.3</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <f t="shared" si="0"/>
         <v>1.8365</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
     </row>
     <row r="12" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>13</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>13.82</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>7.99</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>28.04</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>1.05</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <f t="shared" si="0"/>
         <v>15.770999999999999</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
     </row>
     <row r="13" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>4</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>10.82</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>0.25</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>10.68</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <f t="shared" si="0"/>
         <v>4.6765000000000008</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>12</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>11.53</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>4.95</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>13.99</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <f t="shared" si="0"/>
         <v>9.3189999999999991</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>5</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>0.7</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>10.25</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>0.47</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>10.24</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <f t="shared" si="0"/>
         <v>4.4384999999999994</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>9</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>0.87</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>2.97</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>0.36</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <f t="shared" si="0"/>
         <v>1.3435000000000001</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>90</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>28.01</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>3.43</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>7.46</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>0.17</v>
       </c>
-      <c r="G17" s="8">
-        <f t="shared" si="0"/>
+      <c r="G17" s="7">
+        <f>C17*0.25+D17*0.3+F17*0.1+E17*0.35</f>
         <v>10.659500000000001</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
     </row>
     <row r="18" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>14</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>0.89</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>7.85</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>1.19</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <v>2.97</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <f t="shared" si="0"/>
         <v>3.2910000000000004</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
     </row>
     <row r="19" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>15</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>0.5</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>8.61</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <v>1.21</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <v>4.7</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <f t="shared" si="0"/>
         <v>3.6014999999999997</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
     </row>
     <row r="20" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>3</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>1.76</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>3.4</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="7">
         <v>0.27</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <v>3.35</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="7">
         <f t="shared" si="0"/>
         <v>1.8895</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
     </row>
     <row r="21" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>20</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>13.57</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <v>0.37</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <v>13.07</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="7">
         <f t="shared" si="0"/>
         <v>5.6524999999999999</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
     </row>
     <row r="22" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>8</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>19.52</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>1.96</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="7">
         <v>10.69</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="7">
         <v>0.95</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="7">
         <f t="shared" si="0"/>
         <v>9.3044999999999991</v>
       </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
     </row>
     <row r="23" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>12</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <v>6.52</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>27.75</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="7">
         <v>0.98</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="7">
         <v>0.63</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="7">
         <f t="shared" si="0"/>
         <v>10.360999999999999</v>
       </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
     </row>
     <row r="24" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>4</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>2.99</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>6.35</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <v>0.37</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="7">
         <v>2.7</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="7">
         <f t="shared" si="0"/>
         <v>3.052</v>
       </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
     </row>
     <row r="25" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>12</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>5.8</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>26.15</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="7">
         <v>1.04</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="7">
         <v>1.42</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="7">
         <f t="shared" si="0"/>
         <v>9.8009999999999984</v>
       </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
     </row>
     <row r="26" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>12</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>9.49</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>2.3199999999999998</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="7">
         <v>3</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="7">
         <v>4.71</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="7">
         <f t="shared" si="0"/>
         <v>4.5895000000000001</v>
       </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>2</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>1.49</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>2.44</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="7">
         <v>0.36</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="7">
         <v>2.13</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="7">
         <f t="shared" si="0"/>
         <v>1.4435000000000002</v>
       </c>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
     </row>
     <row r="28" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>10</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>9.24</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <v>10.69</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="7">
         <v>24.66</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="7">
         <v>2.2400000000000002</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="7">
         <f t="shared" si="0"/>
         <v>14.372</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <v>13</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <v>6.71</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <v>4.49</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="7">
         <v>3.85</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="7">
         <v>4.8600000000000003</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="7">
         <f t="shared" si="0"/>
         <v>4.8579999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="7">
         <v>50</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <v>11.95</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
         <v>3.58</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="7">
         <v>9.9</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="7">
         <v>0.94</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="7">
         <f t="shared" si="0"/>
         <v>7.6204999999999998</v>
       </c>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
     </row>
     <row r="31" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="7">
         <v>14</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <v>0.16</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <v>6.21</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="7">
         <v>2.77</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="7">
         <v>2.06</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="7">
         <f t="shared" si="0"/>
         <v>3.0785</v>
       </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
     </row>
     <row r="32" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="7">
         <v>8</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <v>24.84</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <v>2.09</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="7">
         <v>7.91</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="7">
         <v>0.34</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="7">
         <f t="shared" si="0"/>
         <v>9.6395</v>
       </c>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
     </row>
     <row r="33" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>4</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>0.18</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <v>9.11</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="7">
         <v>1.22</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="7">
         <v>5.69</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="7">
         <f t="shared" si="0"/>
         <v>3.7739999999999996</v>
       </c>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
     </row>
     <row r="34" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="7">
         <v>5</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="7">
         <v>9.19</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="7">
         <v>3.03</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="7">
         <v>5.24</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="7">
         <f t="shared" si="0"/>
         <v>4.484</v>
       </c>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
     </row>
     <row r="35" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="7">
         <v>12</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>1</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="7">
         <v>9.15</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="7">
         <v>1.95</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="7">
         <v>0.6</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="7">
         <f t="shared" si="0"/>
         <v>3.7375000000000003</v>
       </c>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
     </row>
     <row r="36" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="7">
         <v>5</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="7">
         <v>0.22</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="7">
         <v>3.72</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="7">
         <v>0.78</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="7">
         <v>8.17</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="7">
         <f t="shared" si="0"/>
         <v>2.2610000000000001</v>
       </c>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
     </row>
     <row r="37" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="7">
         <v>5</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="7">
         <v>0.95</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="7">
         <v>8.52</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="7">
         <v>1.75</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="7">
         <v>5.1100000000000003</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="7">
         <f t="shared" si="0"/>
         <v>3.9169999999999994</v>
       </c>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
     </row>
     <row r="38" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="7">
         <v>13</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="7">
         <v>0.73</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="7">
         <v>4.91</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="7">
         <v>0.32</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="7">
         <v>9.39</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="7">
         <f t="shared" si="0"/>
         <v>2.7065000000000001</v>
       </c>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
     </row>
     <row r="39" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="7">
         <v>2</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="7">
         <v>0.43</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="7">
         <v>8.75</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="7">
         <v>0.93</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="7">
         <v>1.17</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="7">
         <f t="shared" si="0"/>
         <v>3.1749999999999998</v>
       </c>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
     </row>
     <row r="40" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="7">
         <v>6</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="7">
         <v>3.68</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="7">
         <v>19.690000000000001</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="7">
         <v>1.61</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="7">
         <v>0.83</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="7">
         <f t="shared" si="0"/>
         <v>7.4735000000000005</v>
       </c>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
     </row>
     <row r="41" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="7">
         <v>7</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="7">
         <v>6.46</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="7">
         <v>19.97</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="7">
         <v>2.16</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="7">
         <v>2.36</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="7">
         <f t="shared" si="0"/>
         <v>8.597999999999999</v>
       </c>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
     </row>
     <row r="42" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="7">
         <v>12</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="7">
         <v>4.43</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="7">
         <v>3.72</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="7">
         <v>3.85</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="7">
         <v>3.57</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="7">
         <f t="shared" si="0"/>
         <v>3.9279999999999999</v>
       </c>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
     </row>
     <row r="43" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="7">
         <v>5</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="7">
         <v>0.96</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="7">
         <v>8.92</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="7">
         <v>4.3099999999999996</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="7">
         <v>6.13</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="7">
         <f t="shared" si="0"/>
         <v>5.0374999999999996</v>
       </c>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
     </row>
     <row r="44" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="7">
         <v>20</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="7">
         <v>11.8</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="7">
         <v>4.83</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="7">
         <v>16.29</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F44" s="7">
         <v>0.11</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="7">
         <f t="shared" si="0"/>
         <v>10.111499999999999</v>
       </c>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
     </row>
     <row r="45" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="7">
         <v>5</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="7">
         <v>0.5</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="7">
         <v>4.62</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="7">
         <v>0.49</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="7">
         <v>1.03</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="7">
         <f t="shared" si="0"/>
         <v>1.7854999999999999</v>
       </c>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
     </row>
     <row r="46" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="7">
         <v>3</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="7">
         <v>5.03</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="7">
         <v>21.96</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="7">
         <v>2.5299999999999998</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F46" s="7">
         <v>0.67</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="7">
         <f t="shared" si="0"/>
         <v>8.798</v>
       </c>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
     </row>
     <row r="47" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="7">
         <v>2</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="7">
         <v>0.6</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="7">
         <v>5.37</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="7">
         <v>0.18</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F47" s="7">
         <v>1.58</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="7">
         <f t="shared" si="0"/>
         <v>1.982</v>
       </c>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
     </row>
     <row r="48" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="7">
         <v>18</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="7">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="7">
         <v>10.33</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="7">
         <v>0.25</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F48" s="7">
         <v>14.58</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="7">
         <f t="shared" si="0"/>
         <v>4.7845000000000004</v>
       </c>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
     </row>
     <row r="49" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="7">
         <v>15</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="7">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="7">
         <v>2.09</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="7">
         <v>4.3499999999999996</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F49" s="7">
         <v>9.31</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="7">
         <f t="shared" si="0"/>
         <v>3.2229999999999999</v>
       </c>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
     </row>
     <row r="50" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="7">
         <v>12</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="7">
         <v>0.86</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="7">
         <v>4.18</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F50" s="7">
         <v>5.77</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50" s="7">
         <f t="shared" si="0"/>
         <v>2.8159999999999998</v>
       </c>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
     </row>
     <row r="51" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="7">
         <v>12</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="7">
         <v>0.95</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="7">
         <v>6.72</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="7">
         <v>1.48</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F51" s="7">
         <v>2.7</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G51" s="7">
         <f t="shared" si="0"/>
         <v>3.0415000000000001</v>
       </c>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
     </row>
     <row r="52" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B52" s="7">
         <v>9</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="7">
         <v>0.45</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="7">
         <v>7.51</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="7">
         <v>2.84</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F52" s="7">
         <v>0.61</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G52" s="7">
         <f t="shared" si="0"/>
         <v>3.4204999999999992</v>
       </c>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
     </row>
     <row r="53" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="7">
         <v>7</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="7">
         <v>15.12</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="7">
         <v>1.41</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="7">
         <v>17.16</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F53" s="7">
         <v>0.95</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G53" s="7">
         <f t="shared" si="0"/>
         <v>10.303999999999998</v>
       </c>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
     </row>
     <row r="54" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54" s="7">
         <v>3</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="7">
         <v>0.78</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="7">
         <v>17.559999999999999</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E54" s="7">
         <v>0.4</v>
       </c>
-      <c r="F54" s="8">
+      <c r="F54" s="7">
         <v>11.84</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G54" s="7">
         <f t="shared" si="0"/>
         <v>6.7869999999999999</v>
       </c>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="12"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="11"/>
     </row>
     <row r="55" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55" s="7">
         <v>8</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="7">
         <v>26.14</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="7">
         <v>4.8099999999999996</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E55" s="7">
         <v>12.38</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F55" s="7">
         <v>0.91</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G55" s="7">
         <f t="shared" si="0"/>
         <v>12.401999999999999</v>
       </c>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="8">
+      <c r="B56" s="7">
         <v>7</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="7">
         <v>1.1200000000000001</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="7">
         <v>18.21</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E56" s="7">
         <v>0.27</v>
       </c>
-      <c r="F56" s="8">
+      <c r="F56" s="7">
         <v>12.51</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G56" s="7">
         <f t="shared" si="0"/>
         <v>7.0885000000000007</v>
       </c>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="12"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="11"/>
     </row>
     <row r="57" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B57" s="7">
         <v>12</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="7">
         <v>0.76</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="7">
         <v>7.1</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E57" s="7">
         <v>4.3499999999999996</v>
       </c>
-      <c r="F57" s="8">
+      <c r="F57" s="7">
         <v>1.25</v>
       </c>
-      <c r="G57" s="8">
+      <c r="G57" s="7">
         <f t="shared" si="0"/>
         <v>3.9674999999999994</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B58" s="8">
+      <c r="B58" s="7">
         <v>9</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="7">
         <v>0.87</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="7">
         <v>8.6300000000000008</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E58" s="7">
         <v>0.83</v>
       </c>
-      <c r="F58" s="8">
+      <c r="F58" s="7">
         <v>6.19</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G58" s="7">
         <f t="shared" si="0"/>
         <v>3.7160000000000002</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59" s="7">
         <v>7</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="7">
         <v>6.36</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="7">
         <v>4.05</v>
       </c>
-      <c r="E59" s="8">
+      <c r="E59" s="7">
         <v>5.55</v>
       </c>
-      <c r="F59" s="8">
+      <c r="F59" s="7">
         <v>2.29</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G59" s="7">
         <f t="shared" si="0"/>
         <v>4.9764999999999997</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B60" s="8">
+      <c r="B60" s="7">
         <v>8</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="7">
         <v>0.81</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D60" s="7">
         <v>9.69</v>
       </c>
-      <c r="E60" s="8">
+      <c r="E60" s="7">
         <v>3.36</v>
       </c>
-      <c r="F60" s="8">
+      <c r="F60" s="7">
         <v>6.06</v>
       </c>
-      <c r="G60" s="8">
+      <c r="G60" s="7">
         <f t="shared" si="0"/>
         <v>4.8914999999999997</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B61" s="7">
         <v>6</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="7">
         <v>0.6</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="7">
         <v>6.53</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E61" s="7">
         <v>0.11</v>
       </c>
-      <c r="F61" s="8">
+      <c r="F61" s="7">
         <v>3.24</v>
       </c>
-      <c r="G61" s="8">
+      <c r="G61" s="7">
         <f t="shared" si="0"/>
         <v>2.4714999999999998</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B62" s="8">
+      <c r="B62" s="7">
         <v>12</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="7">
         <v>0.59</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D62" s="7">
         <v>5.18</v>
       </c>
-      <c r="E62" s="8">
+      <c r="E62" s="7">
         <v>3.74</v>
       </c>
-      <c r="F62" s="8">
+      <c r="F62" s="7">
         <v>3.26</v>
       </c>
-      <c r="G62" s="8">
+      <c r="G62" s="7">
         <f t="shared" si="0"/>
         <v>3.3365</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B63" s="7">
         <v>3</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="7">
         <v>0.44</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="7">
         <v>2.8</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E63" s="7">
         <v>0.39</v>
       </c>
-      <c r="F63" s="8">
+      <c r="F63" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G63" s="7">
         <f t="shared" si="0"/>
         <v>1.4964999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B64" s="8">
+      <c r="B64" s="7">
         <v>5</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="7">
         <v>0.23</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="7">
         <v>4.87</v>
       </c>
-      <c r="E64" s="8">
+      <c r="E64" s="7">
         <v>2.81</v>
       </c>
-      <c r="F64" s="8">
+      <c r="F64" s="7">
         <v>9.3000000000000007</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G64" s="7">
         <f t="shared" si="0"/>
         <v>3.4319999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B65" s="7">
         <v>25</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="7">
         <v>0.13</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="7">
         <v>2.0099999999999998</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E65" s="7">
         <v>0.19</v>
       </c>
-      <c r="F65" s="8">
+      <c r="F65" s="7">
         <v>7.45</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G65" s="7">
         <f t="shared" si="0"/>
         <v>1.4470000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B66" s="7">
         <v>1</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="7">
         <v>2.41</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D66" s="7">
         <v>4.8499999999999996</v>
       </c>
-      <c r="E66" s="8">
+      <c r="E66" s="7">
         <v>0.36</v>
       </c>
-      <c r="F66" s="8">
+      <c r="F66" s="7">
         <v>2.68</v>
       </c>
-      <c r="G66" s="8">
+      <c r="G66" s="7">
         <f t="shared" si="0"/>
         <v>2.4514999999999998</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B67" s="7">
         <v>6</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="7">
         <v>0.85</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D67" s="7">
         <v>17.75</v>
       </c>
-      <c r="E67" s="8">
+      <c r="E67" s="7">
         <v>0.25</v>
       </c>
-      <c r="F67" s="8">
+      <c r="F67" s="7">
         <v>13.54</v>
       </c>
-      <c r="G67" s="8">
+      <c r="G67" s="7">
         <f t="shared" si="0"/>
         <v>6.979000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B68" s="7">
         <v>5</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="7">
         <v>0.62</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D68" s="7">
         <v>7.37</v>
       </c>
-      <c r="E68" s="8">
+      <c r="E68" s="7">
         <v>2.4</v>
       </c>
-      <c r="F68" s="8">
+      <c r="F68" s="7">
         <v>1.26</v>
       </c>
-      <c r="G68" s="8">
+      <c r="G68" s="7">
         <f t="shared" si="0"/>
         <v>3.3319999999999994</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B69" s="7">
         <v>8</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="7">
         <v>6.08</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D69" s="7">
         <v>16.36</v>
       </c>
-      <c r="E69" s="8">
+      <c r="E69" s="7">
         <v>1.75</v>
       </c>
-      <c r="F69" s="8">
+      <c r="F69" s="7">
         <v>2.2799999999999998</v>
       </c>
-      <c r="G69" s="8">
+      <c r="G69" s="7">
         <f t="shared" si="0"/>
         <v>7.2684999999999986</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B70" s="8">
+      <c r="B70" s="7">
         <v>10</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="7">
         <v>15.93</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D70" s="7">
         <v>13.15</v>
       </c>
-      <c r="E70" s="8">
+      <c r="E70" s="7">
         <v>19.55</v>
       </c>
-      <c r="F70" s="8">
+      <c r="F70" s="7">
         <v>2.5299999999999998</v>
       </c>
-      <c r="G70" s="8">
+      <c r="G70" s="7">
         <f t="shared" si="0"/>
         <v>15.023</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B71" s="8">
+      <c r="B71" s="7">
         <v>20</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="7">
         <v>0.34</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D71" s="7">
         <v>6.29</v>
       </c>
-      <c r="E71" s="8">
+      <c r="E71" s="7">
         <v>1.89</v>
       </c>
-      <c r="F71" s="8">
+      <c r="F71" s="7">
         <v>0.24</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G71" s="7">
         <f t="shared" si="0"/>
         <v>2.6574999999999998</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B72" s="8">
+      <c r="B72" s="7">
         <v>5</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72" s="7">
         <v>0.25</v>
       </c>
-      <c r="D72" s="8">
+      <c r="D72" s="7">
         <v>3.47</v>
       </c>
-      <c r="E72" s="8">
+      <c r="E72" s="7">
         <v>0.5</v>
       </c>
-      <c r="F72" s="8">
+      <c r="F72" s="7">
         <v>0.4</v>
       </c>
-      <c r="G72" s="8">
+      <c r="G72" s="7">
         <f t="shared" si="0"/>
         <v>1.3185</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B73" s="7">
         <v>7</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="7">
         <v>20.51</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D73" s="7">
         <v>3.25</v>
       </c>
-      <c r="E73" s="8">
+      <c r="E73" s="7">
         <v>19.690000000000001</v>
       </c>
-      <c r="F73" s="8">
+      <c r="F73" s="7">
         <v>0.4</v>
       </c>
-      <c r="G73" s="8">
+      <c r="G73" s="7">
         <f t="shared" si="0"/>
         <v>13.033999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="B74" s="8">
+      <c r="B74" s="7">
         <v>18</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="7">
         <v>7.21</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D74" s="7">
         <v>29.23</v>
       </c>
-      <c r="E74" s="8">
+      <c r="E74" s="7">
         <v>2.83</v>
       </c>
-      <c r="F74" s="8">
+      <c r="F74" s="7">
         <v>1.96</v>
       </c>
-      <c r="G74" s="8">
+      <c r="G74" s="7">
         <f t="shared" si="0"/>
         <v>11.757999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="B75" s="8">
+      <c r="B75" s="7">
         <v>70</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="7">
         <v>21.21</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D75" s="7">
         <v>3.16</v>
       </c>
-      <c r="E75" s="8">
+      <c r="E75" s="7">
         <v>8.4</v>
       </c>
-      <c r="F75" s="8">
+      <c r="F75" s="7">
         <v>0.98</v>
       </c>
-      <c r="G75" s="8">
+      <c r="G75" s="7">
         <f t="shared" si="0"/>
         <v>9.2885000000000009</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B76" s="8">
+      <c r="B76" s="7">
         <v>2</v>
       </c>
-      <c r="C76" s="8">
+      <c r="C76" s="7">
         <v>1.45</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D76" s="7">
         <v>7.7</v>
       </c>
-      <c r="E76" s="8">
+      <c r="E76" s="7">
         <v>0.16</v>
       </c>
-      <c r="F76" s="8">
+      <c r="F76" s="7">
         <v>3.46</v>
       </c>
-      <c r="G76" s="8">
+      <c r="G76" s="7">
         <f t="shared" si="0"/>
         <v>3.0745</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B77" s="8">
+      <c r="B77" s="7">
         <v>7</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="7">
         <v>6.06</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D77" s="7">
         <v>17.600000000000001</v>
       </c>
-      <c r="E77" s="8">
+      <c r="E77" s="7">
         <v>1.74</v>
       </c>
-      <c r="F77" s="8">
+      <c r="F77" s="7">
         <v>0.76</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G77" s="7">
         <f t="shared" si="0"/>
         <v>7.4799999999999995</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="8">
+      <c r="B78" s="7">
         <v>8</v>
       </c>
-      <c r="C78" s="8">
+      <c r="C78" s="7">
         <v>2.54</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D78" s="7">
         <v>18.03</v>
       </c>
-      <c r="E78" s="8">
+      <c r="E78" s="7">
         <v>1.47</v>
       </c>
-      <c r="F78" s="8">
+      <c r="F78" s="7">
         <v>1.56</v>
       </c>
-      <c r="G78" s="8">
+      <c r="G78" s="7">
         <f t="shared" si="0"/>
         <v>6.7144999999999992</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B79" s="8">
+      <c r="B79" s="7">
         <v>100</v>
       </c>
-      <c r="C79" s="8">
+      <c r="C79" s="7">
         <v>18.71</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D79" s="7">
         <v>3.31</v>
       </c>
-      <c r="E79" s="8">
+      <c r="E79" s="7">
         <v>12.62</v>
       </c>
-      <c r="F79" s="8">
+      <c r="F79" s="7">
         <v>0.75</v>
       </c>
-      <c r="G79" s="8">
+      <c r="G79" s="7">
         <f t="shared" si="0"/>
         <v>10.162500000000001</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B80" s="8">
+      <c r="B80" s="7">
         <v>5</v>
       </c>
-      <c r="C80" s="8">
+      <c r="C80" s="7">
         <v>0.8</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D80" s="7">
         <v>3.22</v>
       </c>
-      <c r="E80" s="8">
+      <c r="E80" s="7">
         <v>2.0699999999999998</v>
       </c>
-      <c r="F80" s="8">
+      <c r="F80" s="7">
         <v>8.6999999999999993</v>
       </c>
-      <c r="G80" s="8">
+      <c r="G80" s="7">
         <f t="shared" si="0"/>
         <v>2.7605</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B81" s="8">
+      <c r="B81" s="7">
         <v>12</v>
       </c>
-      <c r="C81" s="8">
+      <c r="C81" s="7">
         <v>27.51</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D81" s="7">
         <v>2.5</v>
       </c>
-      <c r="E81" s="8">
+      <c r="E81" s="7">
         <v>5.49</v>
       </c>
-      <c r="F81" s="8">
+      <c r="F81" s="7">
         <v>0.13</v>
       </c>
-      <c r="G81" s="8">
+      <c r="G81" s="7">
         <f t="shared" si="0"/>
         <v>9.5620000000000012</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B82" s="8">
+      <c r="B82" s="7">
         <v>30</v>
       </c>
-      <c r="C82" s="8">
+      <c r="C82" s="7">
         <v>12.67</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D82" s="7">
         <v>0.63</v>
       </c>
-      <c r="E82" s="8">
+      <c r="E82" s="7">
         <v>8.0299999999999994</v>
       </c>
-      <c r="F82" s="8">
+      <c r="F82" s="7">
         <v>0.75</v>
       </c>
-      <c r="G82" s="8">
+      <c r="G82" s="7">
         <f t="shared" si="0"/>
         <v>6.242</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B83" s="8">
+      <c r="B83" s="7">
         <v>110</v>
       </c>
-      <c r="C83" s="8">
+      <c r="C83" s="7">
         <v>11.68</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D83" s="7">
         <v>2.85</v>
       </c>
-      <c r="E83" s="8">
+      <c r="E83" s="7">
         <v>8.2200000000000006</v>
       </c>
-      <c r="F83" s="8">
+      <c r="F83" s="7">
         <v>0.95</v>
       </c>
-      <c r="G83" s="8">
+      <c r="G83" s="7">
         <f t="shared" si="0"/>
         <v>6.7469999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="8">
+      <c r="B84" s="7">
         <v>9</v>
       </c>
-      <c r="C84" s="8">
+      <c r="C84" s="7">
         <v>0.93</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D84" s="7">
         <v>6.05</v>
       </c>
-      <c r="E84" s="8">
+      <c r="E84" s="7">
         <v>1.67</v>
       </c>
-      <c r="F84" s="8">
+      <c r="F84" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G84" s="8">
+      <c r="G84" s="7">
         <f t="shared" si="0"/>
         <v>2.7419999999999995</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B85" s="8">
+      <c r="B85" s="7">
         <v>4</v>
       </c>
-      <c r="C85" s="8">
+      <c r="C85" s="7">
         <v>0.96</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D85" s="7">
         <v>9.98</v>
       </c>
-      <c r="E85" s="8">
+      <c r="E85" s="7">
         <v>0.2</v>
       </c>
-      <c r="F85" s="8">
+      <c r="F85" s="7">
         <v>4.3</v>
       </c>
-      <c r="G85" s="8">
+      <c r="G85" s="7">
         <f t="shared" si="0"/>
         <v>3.734</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B86" s="8">
+      <c r="B86" s="7">
         <v>7</v>
       </c>
-      <c r="C86" s="8">
+      <c r="C86" s="7">
         <v>0.85</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D86" s="7">
         <v>5.27</v>
       </c>
-      <c r="E86" s="8">
+      <c r="E86" s="7">
         <v>3.7</v>
       </c>
-      <c r="F86" s="8">
+      <c r="F86" s="7">
         <v>5.45</v>
       </c>
-      <c r="G86" s="8">
+      <c r="G86" s="7">
         <f t="shared" si="0"/>
         <v>3.6334999999999997</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B87" s="8">
+      <c r="B87" s="7">
         <v>10</v>
       </c>
-      <c r="C87" s="8">
+      <c r="C87" s="7">
         <v>0.78</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D87" s="7">
         <v>3.46</v>
       </c>
-      <c r="E87" s="8">
+      <c r="E87" s="7">
         <v>0.75</v>
       </c>
-      <c r="F87" s="8">
+      <c r="F87" s="7">
         <v>8.43</v>
       </c>
-      <c r="G87" s="8">
+      <c r="G87" s="7">
         <f t="shared" si="0"/>
         <v>2.3384999999999998</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="B88" s="8">
+      <c r="B88" s="7">
         <v>15</v>
       </c>
-      <c r="C88" s="8">
+      <c r="C88" s="7">
         <v>10.050000000000001</v>
       </c>
-      <c r="D88" s="8">
+      <c r="D88" s="7">
         <v>0.11</v>
       </c>
-      <c r="E88" s="8">
+      <c r="E88" s="7">
         <v>14.07</v>
       </c>
-      <c r="F88" s="8">
+      <c r="F88" s="7">
         <v>0.62</v>
       </c>
-      <c r="G88" s="8">
+      <c r="G88" s="7">
         <f t="shared" si="0"/>
         <v>7.532</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B89" s="8">
+      <c r="B89" s="7">
         <v>20</v>
       </c>
-      <c r="C89" s="8">
+      <c r="C89" s="7">
         <v>17.600000000000001</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D89" s="7">
         <v>0.54</v>
       </c>
-      <c r="E89" s="8">
+      <c r="E89" s="7">
         <v>16.95</v>
       </c>
-      <c r="F89" s="8">
+      <c r="F89" s="7">
         <v>0.85</v>
       </c>
-      <c r="G89" s="8">
+      <c r="G89" s="7">
         <f t="shared" si="0"/>
         <v>10.579499999999999</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B90" s="8">
+      <c r="B90" s="7">
         <v>2</v>
       </c>
-      <c r="C90" s="8">
+      <c r="C90" s="7">
         <v>2.29</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D90" s="7">
         <v>4.33</v>
       </c>
-      <c r="E90" s="8">
+      <c r="E90" s="7">
         <v>0.32</v>
       </c>
-      <c r="F90" s="8">
+      <c r="F90" s="7">
         <v>1.22</v>
       </c>
-      <c r="G90" s="8">
+      <c r="G90" s="7">
         <f t="shared" si="0"/>
         <v>2.1055000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B91" s="8">
+      <c r="B91" s="7">
         <v>8</v>
       </c>
-      <c r="C91" s="8">
+      <c r="C91" s="7">
         <v>0.95</v>
       </c>
-      <c r="D91" s="8">
+      <c r="D91" s="7">
         <v>4.88</v>
       </c>
-      <c r="E91" s="8">
+      <c r="E91" s="7">
         <v>3.87</v>
       </c>
-      <c r="F91" s="8">
+      <c r="F91" s="7">
         <v>4.26</v>
       </c>
-      <c r="G91" s="8">
+      <c r="G91" s="7">
         <f t="shared" si="0"/>
         <v>3.4820000000000002</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A92" s="9" t="s">
+      <c r="A92" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B92" s="8">
+      <c r="B92" s="7">
         <v>6</v>
       </c>
-      <c r="C92" s="8">
+      <c r="C92" s="7">
         <v>0.66</v>
       </c>
-      <c r="D92" s="8">
+      <c r="D92" s="7">
         <v>4.42</v>
       </c>
-      <c r="E92" s="8">
+      <c r="E92" s="7">
         <v>1.83</v>
       </c>
-      <c r="F92" s="8">
+      <c r="F92" s="7">
         <v>4.29</v>
       </c>
-      <c r="G92" s="8">
+      <c r="G92" s="7">
         <f t="shared" si="0"/>
         <v>2.5604999999999998</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B93" s="8">
+      <c r="B93" s="7">
         <v>5</v>
       </c>
-      <c r="C93" s="8">
+      <c r="C93" s="7">
         <v>0.59</v>
       </c>
-      <c r="D93" s="8">
+      <c r="D93" s="7">
         <v>3.96</v>
       </c>
-      <c r="E93" s="8">
+      <c r="E93" s="7">
         <v>4.7</v>
       </c>
-      <c r="F93" s="8">
+      <c r="F93" s="7">
         <v>6.97</v>
       </c>
-      <c r="G93" s="8">
+      <c r="G93" s="7">
         <f t="shared" si="0"/>
         <v>3.6774999999999998</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="B94" s="8">
+      <c r="B94" s="7">
         <v>7</v>
       </c>
-      <c r="C94" s="8">
+      <c r="C94" s="7">
         <v>0.81</v>
       </c>
-      <c r="D94" s="8">
+      <c r="D94" s="7">
         <v>4.62</v>
       </c>
-      <c r="E94" s="8">
+      <c r="E94" s="7">
         <v>0.75</v>
       </c>
-      <c r="F94" s="8">
+      <c r="F94" s="7">
         <v>7.79</v>
       </c>
-      <c r="G94" s="8">
+      <c r="G94" s="7">
         <f t="shared" si="0"/>
         <v>2.63</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A95" s="9" t="s">
+      <c r="A95" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B95" s="8">
+      <c r="B95" s="7">
         <v>14</v>
       </c>
-      <c r="C95" s="8">
+      <c r="C95" s="7">
         <v>0.67</v>
       </c>
-      <c r="D95" s="8">
+      <c r="D95" s="7">
         <v>9.76</v>
       </c>
-      <c r="E95" s="8">
+      <c r="E95" s="7">
         <v>2.98</v>
       </c>
-      <c r="F95" s="8">
+      <c r="F95" s="7">
         <v>1.03</v>
       </c>
-      <c r="G95" s="8">
+      <c r="G95" s="7">
         <f t="shared" si="0"/>
         <v>4.2415000000000003</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A96" s="9" t="s">
+      <c r="A96" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="B96" s="8">
+      <c r="B96" s="7">
         <v>12</v>
       </c>
-      <c r="C96" s="8">
+      <c r="C96" s="7">
         <v>0.43</v>
       </c>
-      <c r="D96" s="8">
+      <c r="D96" s="7">
         <v>8.9600000000000009</v>
       </c>
-      <c r="E96" s="8">
+      <c r="E96" s="7">
         <v>2.84</v>
       </c>
-      <c r="F96" s="8">
+      <c r="F96" s="7">
         <v>2.15</v>
       </c>
-      <c r="G96" s="8">
+      <c r="G96" s="7">
         <f t="shared" si="0"/>
         <v>4.0045000000000002</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="B97" s="8">
+      <c r="B97" s="7">
         <v>13</v>
       </c>
-      <c r="C97" s="8">
+      <c r="C97" s="7">
         <v>10.11</v>
       </c>
-      <c r="D97" s="8">
+      <c r="D97" s="7">
         <v>12.26</v>
       </c>
-      <c r="E97" s="8">
+      <c r="E97" s="7">
         <v>28.88</v>
       </c>
-      <c r="F97" s="8">
+      <c r="F97" s="7">
         <v>3.96</v>
       </c>
-      <c r="G97" s="8">
+      <c r="G97" s="7">
         <f t="shared" si="0"/>
         <v>16.709499999999998</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B98" s="8">
+      <c r="B98" s="7">
         <v>5</v>
       </c>
-      <c r="C98" s="8">
+      <c r="C98" s="7">
         <v>0.15</v>
       </c>
-      <c r="D98" s="8">
+      <c r="D98" s="7">
         <v>2.23</v>
       </c>
-      <c r="E98" s="8">
+      <c r="E98" s="7">
         <v>1.19</v>
       </c>
-      <c r="F98" s="8">
+      <c r="F98" s="7">
         <v>4.84</v>
       </c>
-      <c r="G98" s="8">
+      <c r="G98" s="7">
         <f t="shared" si="0"/>
         <v>1.6069999999999998</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B99" s="8">
+      <c r="B99" s="7">
         <v>30</v>
       </c>
-      <c r="C99" s="8">
+      <c r="C99" s="7">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D99" s="8">
+      <c r="D99" s="7">
         <v>6.15</v>
       </c>
-      <c r="E99" s="8">
+      <c r="E99" s="7">
         <v>2.1800000000000002</v>
       </c>
-      <c r="F99" s="8">
+      <c r="F99" s="7">
         <v>8.89</v>
       </c>
-      <c r="G99" s="8">
+      <c r="G99" s="7">
         <f t="shared" si="0"/>
         <v>3.5670000000000002</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B100" s="8">
+      <c r="B100" s="7">
         <v>10</v>
       </c>
-      <c r="C100" s="8">
+      <c r="C100" s="7">
         <v>5.89</v>
       </c>
-      <c r="D100" s="8">
+      <c r="D100" s="7">
         <v>3.47</v>
       </c>
-      <c r="E100" s="8">
+      <c r="E100" s="7">
         <v>7.2</v>
       </c>
-      <c r="F100" s="8">
+      <c r="F100" s="7">
         <v>1.06</v>
       </c>
-      <c r="G100" s="8">
+      <c r="G100" s="7">
         <f t="shared" si="0"/>
         <v>5.1395</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B101" s="8">
+      <c r="B101" s="7">
         <v>5</v>
       </c>
-      <c r="C101" s="8">
+      <c r="C101" s="7">
         <v>2.56</v>
       </c>
-      <c r="D101" s="8">
+      <c r="D101" s="7">
         <v>9.7100000000000009</v>
       </c>
-      <c r="E101" s="8">
+      <c r="E101" s="7">
         <v>0.2</v>
       </c>
-      <c r="F101" s="8">
+      <c r="F101" s="7">
         <v>1.9</v>
       </c>
-      <c r="G101" s="8">
+      <c r="G101" s="7">
         <f t="shared" si="0"/>
         <v>3.8130000000000002</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A102" s="9" t="s">
+      <c r="A102" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B102" s="9">
+      <c r="B102" s="8">
         <v>10</v>
       </c>
-      <c r="C102" s="9">
+      <c r="C102" s="8">
         <v>2.5</v>
       </c>
-      <c r="D102" s="9">
+      <c r="D102" s="8">
         <v>30</v>
       </c>
-      <c r="E102" s="9">
+      <c r="E102" s="8">
         <v>0.5</v>
       </c>
-      <c r="F102" s="9">
+      <c r="F102" s="8">
         <v>1</v>
       </c>
-      <c r="G102" s="8">
+      <c r="G102" s="7">
         <f t="shared" si="0"/>
         <v>9.9</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A103" s="9" t="s">
+      <c r="A103" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="B103" s="9">
+      <c r="B103" s="8">
         <v>12</v>
       </c>
-      <c r="C103" s="9">
+      <c r="C103" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D103" s="9">
+      <c r="D103" s="8">
         <v>35</v>
       </c>
-      <c r="E103" s="9">
+      <c r="E103" s="8">
         <v>0.3</v>
       </c>
-      <c r="F103" s="9">
+      <c r="F103" s="8">
         <v>0.2</v>
       </c>
-      <c r="G103" s="8">
+      <c r="G103" s="7">
         <f t="shared" si="0"/>
         <v>11.2</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B104" s="9">
+      <c r="B104" s="8">
         <v>50</v>
       </c>
-      <c r="C104" s="9">
+      <c r="C104" s="8">
         <v>27</v>
       </c>
-      <c r="D104" s="9">
+      <c r="D104" s="8">
         <v>0</v>
       </c>
-      <c r="E104" s="9">
+      <c r="E104" s="8">
         <v>3.6</v>
       </c>
-      <c r="F104" s="9">
+      <c r="F104" s="8">
         <v>0</v>
       </c>
-      <c r="G104" s="8">
+      <c r="G104" s="7">
         <f t="shared" si="0"/>
         <v>8.01</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="9">
+      <c r="B105" s="8">
         <v>15</v>
       </c>
-      <c r="C105" s="9">
+      <c r="C105" s="8">
         <v>2</v>
       </c>
-      <c r="D105" s="9">
+      <c r="D105" s="8">
         <v>9</v>
       </c>
-      <c r="E105" s="9">
+      <c r="E105" s="8">
         <v>15</v>
       </c>
-      <c r="F105" s="9">
+      <c r="F105" s="8">
         <v>0.7</v>
       </c>
-      <c r="G105" s="8">
+      <c r="G105" s="7">
         <f t="shared" si="0"/>
         <v>8.52</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A106" s="9" t="s">
+      <c r="A106" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="B106" s="9">
+      <c r="B106" s="8">
         <v>70</v>
       </c>
-      <c r="C106" s="9">
+      <c r="C106" s="8">
         <v>26</v>
       </c>
-      <c r="D106" s="9">
+      <c r="D106" s="8">
         <v>0</v>
       </c>
-      <c r="E106" s="9">
+      <c r="E106" s="8">
         <v>20</v>
       </c>
-      <c r="F106" s="9">
+      <c r="F106" s="8">
         <v>0.1</v>
       </c>
-      <c r="G106" s="8">
+      <c r="G106" s="7">
         <f t="shared" si="0"/>
         <v>13.51</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A107" s="9" t="s">
+      <c r="A107" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B107" s="9">
+      <c r="B107" s="8">
         <v>90</v>
       </c>
-      <c r="C107" s="9">
+      <c r="C107" s="8">
         <v>28</v>
       </c>
-      <c r="D107" s="9">
+      <c r="D107" s="8">
         <v>0</v>
       </c>
-      <c r="E107" s="9">
+      <c r="E107" s="8">
         <v>25</v>
       </c>
-      <c r="F107" s="9">
+      <c r="F107" s="8">
         <v>0</v>
       </c>
-      <c r="G107" s="8">
+      <c r="G107" s="7">
         <f t="shared" si="0"/>
         <v>15.75</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A108" s="9" t="s">
+      <c r="A108" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B108" s="9">
+      <c r="B108" s="8">
         <v>14</v>
       </c>
-      <c r="C108" s="9">
+      <c r="C108" s="8">
         <v>0.5</v>
       </c>
-      <c r="D108" s="9">
+      <c r="D108" s="8">
         <v>1</v>
       </c>
-      <c r="E108" s="9">
+      <c r="E108" s="8">
         <v>0.3</v>
       </c>
-      <c r="F108" s="9">
+      <c r="F108" s="8">
         <v>0</v>
       </c>
-      <c r="G108" s="8">
+      <c r="G108" s="7">
         <f t="shared" si="0"/>
         <v>0.53</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B109" s="9">
+      <c r="B109" s="8">
         <v>60</v>
       </c>
-      <c r="C109" s="9">
+      <c r="C109" s="8">
         <v>22</v>
       </c>
-      <c r="D109" s="9">
+      <c r="D109" s="8">
         <v>0</v>
       </c>
-      <c r="E109" s="9">
+      <c r="E109" s="8">
         <v>15</v>
       </c>
-      <c r="F109" s="9">
+      <c r="F109" s="8">
         <v>0</v>
       </c>
-      <c r="G109" s="8">
+      <c r="G109" s="7">
         <f t="shared" si="0"/>
         <v>10.75</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A110" s="9" t="s">
+      <c r="A110" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B110" s="9">
+      <c r="B110" s="8">
         <v>8</v>
       </c>
-      <c r="C110" s="9">
+      <c r="C110" s="8">
         <v>25</v>
       </c>
-      <c r="D110" s="9">
+      <c r="D110" s="8">
         <v>20</v>
       </c>
-      <c r="E110" s="9">
+      <c r="E110" s="8">
         <v>2</v>
       </c>
-      <c r="F110" s="9">
+      <c r="F110" s="8">
         <v>1</v>
       </c>
-      <c r="G110" s="8">
+      <c r="G110" s="7">
         <f t="shared" si="0"/>
         <v>13.049999999999999</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A111" s="9" t="s">
+      <c r="A111" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B111" s="9">
+      <c r="B111" s="8">
         <v>5</v>
       </c>
-      <c r="C111" s="9">
+      <c r="C111" s="8">
         <v>5</v>
       </c>
-      <c r="D111" s="9">
+      <c r="D111" s="8">
         <v>40</v>
       </c>
-      <c r="E111" s="9">
+      <c r="E111" s="8">
         <v>0.8</v>
       </c>
-      <c r="F111" s="9">
+      <c r="F111" s="8">
         <v>2</v>
       </c>
-      <c r="G111" s="8">
+      <c r="G111" s="7">
         <f t="shared" si="0"/>
         <v>13.729999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A112" s="9" t="s">
+      <c r="A112" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B112" s="9">
+      <c r="B112" s="8">
         <v>3</v>
       </c>
-      <c r="C112" s="9">
+      <c r="C112" s="8">
         <v>0.7</v>
       </c>
-      <c r="D112" s="9">
+      <c r="D112" s="8">
         <v>4</v>
       </c>
-      <c r="E112" s="9">
+      <c r="E112" s="8">
         <v>0.2</v>
       </c>
-      <c r="F112" s="9">
+      <c r="F112" s="8">
         <v>0.9</v>
       </c>
-      <c r="G112" s="8">
+      <c r="G112" s="7">
         <f t="shared" si="0"/>
         <v>1.5350000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A113" s="9" t="s">
+      <c r="A113" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B113" s="9">
+      <c r="B113" s="8">
         <v>7</v>
       </c>
-      <c r="C113" s="9">
+      <c r="C113" s="8">
         <v>4</v>
       </c>
-      <c r="D113" s="9">
+      <c r="D113" s="8">
         <v>40</v>
       </c>
-      <c r="E113" s="9">
+      <c r="E113" s="8">
         <v>1</v>
       </c>
-      <c r="F113" s="9">
+      <c r="F113" s="8">
         <v>3</v>
       </c>
-      <c r="G113" s="8">
+      <c r="G113" s="7">
         <f t="shared" si="0"/>
         <v>13.65</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A114" s="9" t="s">
+      <c r="A114" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B114" s="9">
+      <c r="B114" s="8">
         <v>25</v>
       </c>
-      <c r="C114" s="9">
+      <c r="C114" s="8">
         <v>0</v>
       </c>
-      <c r="D114" s="9">
+      <c r="D114" s="8">
         <v>0</v>
       </c>
-      <c r="E114" s="9">
+      <c r="E114" s="8">
         <v>99</v>
       </c>
-      <c r="F114" s="9">
+      <c r="F114" s="8">
         <v>0</v>
       </c>
-      <c r="G114" s="8">
+      <c r="G114" s="7">
         <f t="shared" si="0"/>
         <v>34.65</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A115" s="9" t="s">
+      <c r="A115" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B115" s="9">
+      <c r="B115" s="8">
         <v>10</v>
       </c>
-      <c r="C115" s="9">
+      <c r="C115" s="8">
         <v>0.5</v>
       </c>
-      <c r="D115" s="9">
+      <c r="D115" s="8">
         <v>5</v>
       </c>
-      <c r="E115" s="9">
+      <c r="E115" s="8">
         <v>0.1</v>
       </c>
-      <c r="F115" s="9">
+      <c r="F115" s="8">
         <v>0.3</v>
       </c>
-      <c r="G115" s="8">
+      <c r="G115" s="7">
         <f t="shared" si="0"/>
         <v>1.69</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A116" s="9" t="s">
+      <c r="A116" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B116" s="9">
+      <c r="B116" s="8">
         <v>2</v>
       </c>
-      <c r="C116" s="9">
+      <c r="C116" s="8">
         <v>1</v>
       </c>
-      <c r="D116" s="9">
+      <c r="D116" s="8">
         <v>2</v>
       </c>
-      <c r="E116" s="9">
+      <c r="E116" s="8">
         <v>0</v>
       </c>
-      <c r="F116" s="9">
+      <c r="F116" s="8">
         <v>0.5</v>
       </c>
-      <c r="G116" s="8">
+      <c r="G116" s="7">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A117" s="9" t="s">
+      <c r="A117" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B117" s="9">
+      <c r="B117" s="8">
         <v>6</v>
       </c>
-      <c r="C117" s="9">
+      <c r="C117" s="8">
         <v>0</v>
       </c>
-      <c r="D117" s="9">
+      <c r="D117" s="8">
         <v>100</v>
       </c>
-      <c r="E117" s="9">
+      <c r="E117" s="8">
         <v>0</v>
       </c>
-      <c r="F117" s="9">
+      <c r="F117" s="8">
         <v>90</v>
       </c>
-      <c r="G117" s="8">
+      <c r="G117" s="7">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A118" s="9" t="s">
+      <c r="A118" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B118" s="9">
+      <c r="B118" s="8">
         <v>8</v>
       </c>
-      <c r="C118" s="9">
+      <c r="C118" s="8">
         <v>1</v>
       </c>
-      <c r="D118" s="9">
+      <c r="D118" s="8">
         <v>10</v>
       </c>
-      <c r="E118" s="9">
+      <c r="E118" s="8">
         <v>0.2</v>
       </c>
-      <c r="F118" s="9">
+      <c r="F118" s="8">
         <v>4</v>
       </c>
-      <c r="G118" s="8">
+      <c r="G118" s="7">
         <f t="shared" si="0"/>
         <v>3.7199999999999998</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A119" s="9" t="s">
+      <c r="A119" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B119" s="9">
+      <c r="B119" s="8">
         <v>7</v>
       </c>
-      <c r="C119" s="9">
+      <c r="C119" s="8">
         <v>0.3</v>
       </c>
-      <c r="D119" s="9">
+      <c r="D119" s="8">
         <v>85</v>
       </c>
-      <c r="E119" s="9">
+      <c r="E119" s="8">
         <v>0.1</v>
       </c>
-      <c r="F119" s="9">
+      <c r="F119" s="8">
         <v>0</v>
       </c>
-      <c r="G119" s="8">
+      <c r="G119" s="7">
         <f t="shared" si="0"/>
         <v>25.61</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A120" s="9" t="s">
+      <c r="A120" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B120" s="9">
+      <c r="B120" s="8">
         <v>13</v>
       </c>
-      <c r="C120" s="9">
+      <c r="C120" s="8">
         <v>22</v>
       </c>
-      <c r="D120" s="9">
+      <c r="D120" s="8">
         <v>2</v>
       </c>
-      <c r="E120" s="9">
+      <c r="E120" s="8">
         <v>10</v>
       </c>
-      <c r="F120" s="9">
+      <c r="F120" s="8">
         <v>0</v>
       </c>
-      <c r="G120" s="8">
+      <c r="G120" s="7">
         <f t="shared" si="0"/>
         <v>9.6</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A121" s="9" t="s">
+      <c r="A121" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B121" s="9">
+      <c r="B121" s="8">
         <v>4</v>
       </c>
-      <c r="C121" s="9">
+      <c r="C121" s="8">
         <v>0</v>
       </c>
-      <c r="D121" s="9">
+      <c r="D121" s="8">
         <v>30</v>
       </c>
-      <c r="E121" s="9">
+      <c r="E121" s="8">
         <v>0</v>
       </c>
-      <c r="F121" s="9">
+      <c r="F121" s="8">
         <v>0</v>
       </c>
-      <c r="G121" s="8">
+      <c r="G121" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A122" s="9" t="s">
+      <c r="A122" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B122" s="9">
+      <c r="B122" s="8">
         <v>15</v>
       </c>
-      <c r="C122" s="9">
+      <c r="C122" s="8">
         <v>30</v>
       </c>
-      <c r="D122" s="9">
+      <c r="D122" s="8">
         <v>1</v>
       </c>
-      <c r="E122" s="9">
+      <c r="E122" s="8">
         <v>20</v>
       </c>
-      <c r="F122" s="9">
+      <c r="F122" s="8">
         <v>0</v>
       </c>
-      <c r="G122" s="8">
+      <c r="G122" s="7">
         <f t="shared" si="0"/>
         <v>14.8</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A123" s="9" t="s">
+      <c r="A123" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B123" s="9">
+      <c r="B123" s="8">
         <v>12</v>
       </c>
-      <c r="C123" s="9">
+      <c r="C123" s="8">
         <v>1</v>
       </c>
-      <c r="D123" s="9">
+      <c r="D123" s="8">
         <v>1</v>
       </c>
-      <c r="E123" s="9">
+      <c r="E123" s="8">
         <v>0.3</v>
       </c>
-      <c r="F123" s="9">
+      <c r="F123" s="8">
         <v>0</v>
       </c>
-      <c r="G123" s="8">
+      <c r="G123" s="7">
         <f t="shared" si="0"/>
         <v>0.65500000000000003</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A124" s="9" t="s">
+      <c r="A124" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B124" s="9">
+      <c r="B124" s="8">
         <v>25</v>
       </c>
-      <c r="C124" s="9">
+      <c r="C124" s="8">
         <v>18</v>
       </c>
-      <c r="D124" s="9">
+      <c r="D124" s="8">
         <v>0</v>
       </c>
-      <c r="E124" s="9">
+      <c r="E124" s="8">
         <v>3</v>
       </c>
-      <c r="F124" s="9">
+      <c r="F124" s="8">
         <v>0</v>
       </c>
-      <c r="G124" s="8">
+      <c r="G124" s="7">
         <f t="shared" si="0"/>
         <v>5.55</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A125" s="9" t="s">
+      <c r="A125" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B125" s="9">
+      <c r="B125" s="8">
         <v>10</v>
       </c>
-      <c r="C125" s="9">
+      <c r="C125" s="8">
         <v>5</v>
       </c>
-      <c r="D125" s="9">
+      <c r="D125" s="8">
         <v>35</v>
       </c>
-      <c r="E125" s="9">
+      <c r="E125" s="8">
         <v>0.7</v>
       </c>
-      <c r="F125" s="9">
+      <c r="F125" s="8">
         <v>2</v>
       </c>
-      <c r="G125" s="8">
+      <c r="G125" s="7">
         <f t="shared" si="0"/>
         <v>12.194999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A126" s="9" t="s">
+      <c r="A126" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B126" s="9">
+      <c r="B126" s="8">
         <v>300</v>
       </c>
-      <c r="C126" s="9">
+      <c r="C126" s="8">
         <v>0</v>
       </c>
-      <c r="D126" s="9">
+      <c r="D126" s="8">
         <v>0</v>
       </c>
-      <c r="E126" s="9">
+      <c r="E126" s="8">
         <v>0</v>
       </c>
-      <c r="F126" s="9">
+      <c r="F126" s="8">
         <v>0</v>
       </c>
-      <c r="G126" s="8">
+      <c r="G126" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A127" s="9" t="s">
+      <c r="A127" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B127" s="9">
+      <c r="B127" s="8">
         <v>5</v>
       </c>
-      <c r="C127" s="9">
+      <c r="C127" s="8">
         <v>1.8</v>
       </c>
-      <c r="D127" s="9">
+      <c r="D127" s="8">
         <v>8</v>
       </c>
-      <c r="E127" s="9">
+      <c r="E127" s="8">
         <v>0.1</v>
       </c>
-      <c r="F127" s="9">
+      <c r="F127" s="8">
         <v>2</v>
       </c>
-      <c r="G127" s="8">
+      <c r="G127" s="7">
         <f t="shared" si="0"/>
         <v>3.0850000000000004</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A128" s="9" t="s">
+      <c r="A128" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B128" s="9">
+      <c r="B128" s="8">
         <v>3</v>
       </c>
-      <c r="C128" s="9">
+      <c r="C128" s="8">
         <v>3</v>
       </c>
-      <c r="D128" s="9">
+      <c r="D128" s="8">
         <v>20</v>
       </c>
-      <c r="E128" s="9">
+      <c r="E128" s="8">
         <v>1.5</v>
       </c>
-      <c r="F128" s="9">
+      <c r="F128" s="8">
         <v>1</v>
       </c>
-      <c r="G128" s="8">
+      <c r="G128" s="7">
         <f t="shared" si="0"/>
         <v>7.375</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A129" s="9" t="s">
+      <c r="A129" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B129" s="9">
+      <c r="B129" s="8">
         <v>80</v>
       </c>
-      <c r="C129" s="9">
+      <c r="C129" s="8">
         <v>25</v>
       </c>
-      <c r="D129" s="9">
+      <c r="D129" s="8">
         <v>0</v>
       </c>
-      <c r="E129" s="9">
+      <c r="E129" s="8">
         <v>20</v>
       </c>
-      <c r="F129" s="9">
+      <c r="F129" s="8">
         <v>0</v>
       </c>
-      <c r="G129" s="8">
+      <c r="G129" s="7">
         <f t="shared" si="0"/>
         <v>13.25</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A130" s="9" t="s">
+      <c r="A130" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B130" s="9">
+      <c r="B130" s="8">
         <v>90</v>
       </c>
-      <c r="C130" s="9">
+      <c r="C130" s="8">
         <v>24</v>
       </c>
-      <c r="D130" s="9">
+      <c r="D130" s="8">
         <v>0</v>
       </c>
-      <c r="E130" s="9">
+      <c r="E130" s="8">
         <v>20</v>
       </c>
-      <c r="F130" s="9">
+      <c r="F130" s="8">
         <v>0</v>
       </c>
-      <c r="G130" s="8">
+      <c r="G130" s="7">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A131" s="9" t="s">
+      <c r="A131" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B131" s="9">
+      <c r="B131" s="8">
         <v>100</v>
       </c>
-      <c r="C131" s="9">
+      <c r="C131" s="8">
         <v>23</v>
       </c>
-      <c r="D131" s="9">
+      <c r="D131" s="8">
         <v>0</v>
       </c>
-      <c r="E131" s="9">
+      <c r="E131" s="8">
         <v>25</v>
       </c>
-      <c r="F131" s="9">
+      <c r="F131" s="8">
         <v>0</v>
       </c>
-      <c r="G131" s="8">
+      <c r="G131" s="7">
         <f t="shared" si="0"/>
         <v>14.5</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A132" s="9" t="s">
+      <c r="A132" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="B132" s="9">
+      <c r="B132" s="8">
         <v>110</v>
       </c>
-      <c r="C132" s="9">
+      <c r="C132" s="8">
         <v>22</v>
       </c>
-      <c r="D132" s="9">
+      <c r="D132" s="8">
         <v>0</v>
       </c>
-      <c r="E132" s="9">
+      <c r="E132" s="8">
         <v>30</v>
       </c>
-      <c r="F132" s="9">
+      <c r="F132" s="8">
         <v>0</v>
       </c>
-      <c r="G132" s="8">
+      <c r="G132" s="7">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A133" s="9" t="s">
+      <c r="A133" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B133" s="9">
+      <c r="B133" s="8">
         <v>7</v>
       </c>
-      <c r="C133" s="9">
+      <c r="C133" s="8">
         <v>20</v>
       </c>
-      <c r="D133" s="9">
+      <c r="D133" s="8">
         <v>10</v>
       </c>
-      <c r="E133" s="9">
+      <c r="E133" s="8">
         <v>1</v>
       </c>
-      <c r="F133" s="9">
+      <c r="F133" s="8">
         <v>0.5</v>
       </c>
-      <c r="G133" s="8">
+      <c r="G133" s="7">
         <f t="shared" si="0"/>
         <v>8.4</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A134" s="9" t="s">
+      <c r="A134" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B134" s="9">
+      <c r="B134" s="8">
         <v>50</v>
       </c>
-      <c r="C134" s="9">
+      <c r="C134" s="8">
         <v>20</v>
       </c>
-      <c r="D134" s="9">
+      <c r="D134" s="8">
         <v>0</v>
       </c>
-      <c r="E134" s="9">
+      <c r="E134" s="8">
         <v>1</v>
       </c>
-      <c r="F134" s="9">
+      <c r="F134" s="8">
         <v>0</v>
       </c>
-      <c r="G134" s="8">
+      <c r="G134" s="7">
         <f t="shared" si="0"/>
         <v>5.35</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A135" s="9" t="s">
+      <c r="A135" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B135" s="9">
+      <c r="B135" s="8">
         <v>6</v>
       </c>
-      <c r="C135" s="9">
+      <c r="C135" s="8">
         <v>1</v>
       </c>
-      <c r="D135" s="9">
+      <c r="D135" s="8">
         <v>10</v>
       </c>
-      <c r="E135" s="9">
+      <c r="E135" s="8">
         <v>0.5</v>
       </c>
-      <c r="F135" s="9">
+      <c r="F135" s="8">
         <v>3</v>
       </c>
-      <c r="G135" s="8">
+      <c r="G135" s="7">
         <f t="shared" si="0"/>
         <v>3.7249999999999996</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A136" s="9" t="s">
+      <c r="A136" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B136" s="9">
+      <c r="B136" s="8">
         <v>12</v>
       </c>
-      <c r="C136" s="9">
+      <c r="C136" s="8">
         <v>18</v>
       </c>
-      <c r="D136" s="9">
+      <c r="D136" s="8">
         <v>2</v>
       </c>
-      <c r="E136" s="9">
+      <c r="E136" s="8">
         <v>45</v>
       </c>
-      <c r="F136" s="9">
+      <c r="F136" s="8">
         <v>0</v>
       </c>
-      <c r="G136" s="8">
+      <c r="G136" s="7">
         <f t="shared" si="0"/>
         <v>20.849999999999998</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A137" s="9" t="s">
+      <c r="A137" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="B137" s="9">
+      <c r="B137" s="8">
         <v>70</v>
       </c>
-      <c r="C137" s="9">
+      <c r="C137" s="8">
         <v>24</v>
       </c>
-      <c r="D137" s="9">
+      <c r="D137" s="8">
         <v>0</v>
       </c>
-      <c r="E137" s="9">
+      <c r="E137" s="8">
         <v>22</v>
       </c>
-      <c r="F137" s="9">
+      <c r="F137" s="8">
         <v>0</v>
       </c>
-      <c r="G137" s="8">
+      <c r="G137" s="7">
         <f t="shared" si="0"/>
         <v>13.7</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A138" s="9" t="s">
+      <c r="A138" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="B138" s="9">
+      <c r="B138" s="8">
         <v>75</v>
       </c>
-      <c r="C138" s="9">
+      <c r="C138" s="8">
         <v>26</v>
       </c>
-      <c r="D138" s="9">
+      <c r="D138" s="8">
         <v>0</v>
       </c>
-      <c r="E138" s="9">
+      <c r="E138" s="8">
         <v>20</v>
       </c>
-      <c r="F138" s="9">
+      <c r="F138" s="8">
         <v>0</v>
       </c>
-      <c r="G138" s="8">
+      <c r="G138" s="7">
         <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A139" s="9" t="s">
+      <c r="A139" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B139" s="9">
+      <c r="B139" s="8">
         <v>120</v>
       </c>
-      <c r="C139" s="9">
+      <c r="C139" s="8">
         <v>19</v>
       </c>
-      <c r="D139" s="9">
+      <c r="D139" s="8">
         <v>0</v>
       </c>
-      <c r="E139" s="9">
+      <c r="E139" s="8">
         <v>1</v>
       </c>
-      <c r="F139" s="9">
+      <c r="F139" s="8">
         <v>0</v>
       </c>
-      <c r="G139" s="8">
+      <c r="G139" s="7">
         <f t="shared" si="0"/>
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A140" s="9" t="s">
+      <c r="A140" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B140" s="9">
+      <c r="B140" s="8">
         <v>8</v>
       </c>
-      <c r="C140" s="9">
+      <c r="C140" s="8">
         <v>2</v>
       </c>
-      <c r="D140" s="9">
+      <c r="D140" s="8">
         <v>65</v>
       </c>
-      <c r="E140" s="9">
+      <c r="E140" s="8">
         <v>1</v>
       </c>
-      <c r="F140" s="9">
+      <c r="F140" s="8">
         <v>40</v>
       </c>
-      <c r="G140" s="8">
+      <c r="G140" s="7">
         <f t="shared" si="0"/>
         <v>24.35</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A141" s="9" t="s">
+      <c r="A141" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B141" s="9">
+      <c r="B141" s="8">
         <v>10</v>
       </c>
-      <c r="C141" s="9">
+      <c r="C141" s="8">
         <v>8</v>
       </c>
-      <c r="D141" s="9">
+      <c r="D141" s="8">
         <v>10</v>
       </c>
-      <c r="E141" s="9">
+      <c r="E141" s="8">
         <v>15</v>
       </c>
-      <c r="F141" s="9">
+      <c r="F141" s="8">
         <v>2</v>
       </c>
-      <c r="G141" s="8">
+      <c r="G141" s="7">
         <f t="shared" si="0"/>
         <v>10.45</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A142" s="9" t="s">
+      <c r="A142" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B142" s="9">
+      <c r="B142" s="8">
         <v>7</v>
       </c>
-      <c r="C142" s="9">
+      <c r="C142" s="8">
         <v>5</v>
       </c>
-      <c r="D142" s="9">
+      <c r="D142" s="8">
         <v>50</v>
       </c>
-      <c r="E142" s="9">
+      <c r="E142" s="8">
         <v>0.7</v>
       </c>
-      <c r="F142" s="9">
+      <c r="F142" s="8">
         <v>5</v>
       </c>
-      <c r="G142" s="8">
+      <c r="G142" s="7">
         <f t="shared" si="0"/>
         <v>16.995000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A143" s="9" t="s">
+      <c r="A143" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B143" s="9">
+      <c r="B143" s="8">
         <v>6</v>
       </c>
-      <c r="C143" s="9">
+      <c r="C143" s="8">
         <v>1</v>
       </c>
-      <c r="D143" s="9">
+      <c r="D143" s="8">
         <v>4</v>
       </c>
-      <c r="E143" s="9">
+      <c r="E143" s="8">
         <v>10</v>
       </c>
-      <c r="F143" s="9">
+      <c r="F143" s="8">
         <v>2</v>
       </c>
-      <c r="G143" s="8">
+      <c r="G143" s="7">
         <f t="shared" si="0"/>
         <v>5.15</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A144" s="9" t="s">
+      <c r="A144" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="B144" s="9">
+      <c r="B144" s="8">
         <v>100</v>
       </c>
-      <c r="C144" s="9">
+      <c r="C144" s="8">
         <v>30</v>
       </c>
-      <c r="D144" s="9">
+      <c r="D144" s="8">
         <v>0</v>
       </c>
-      <c r="E144" s="9">
+      <c r="E144" s="8">
         <v>15</v>
       </c>
-      <c r="F144" s="9">
+      <c r="F144" s="8">
         <v>0</v>
       </c>
-      <c r="G144" s="8">
+      <c r="G144" s="7">
         <f t="shared" si="0"/>
         <v>12.75</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A145" s="9" t="s">
+      <c r="A145" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="B145" s="9">
+      <c r="B145" s="8">
         <v>9</v>
       </c>
-      <c r="C145" s="9">
+      <c r="C145" s="8">
         <v>3</v>
       </c>
-      <c r="D145" s="9">
+      <c r="D145" s="8">
         <v>20</v>
       </c>
-      <c r="E145" s="9">
+      <c r="E145" s="8">
         <v>10</v>
       </c>
-      <c r="F145" s="9">
+      <c r="F145" s="8">
         <v>5</v>
       </c>
-      <c r="G145" s="8">
+      <c r="G145" s="7">
         <f t="shared" si="0"/>
         <v>10.75</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A146" s="9" t="s">
+      <c r="A146" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B146" s="9">
+      <c r="B146" s="8">
         <v>50</v>
       </c>
-      <c r="C146" s="9">
+      <c r="C146" s="8">
         <v>15</v>
       </c>
-      <c r="D146" s="9">
+      <c r="D146" s="8">
         <v>0</v>
       </c>
-      <c r="E146" s="9">
+      <c r="E146" s="8">
         <v>2</v>
       </c>
-      <c r="F146" s="9">
+      <c r="F146" s="8">
         <v>0</v>
       </c>
-      <c r="G146" s="8">
+      <c r="G146" s="7">
         <f t="shared" si="0"/>
         <v>4.45</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A147" s="13" t="s">
+      <c r="A147" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B147" s="13">
+      <c r="B147" s="12">
         <v>5</v>
       </c>
-      <c r="C147" s="13">
+      <c r="C147" s="12">
         <v>5</v>
       </c>
-      <c r="D147" s="13">
+      <c r="D147" s="12">
         <v>8</v>
       </c>
-      <c r="E147" s="13">
+      <c r="E147" s="12">
         <v>0.3</v>
       </c>
-      <c r="F147" s="13">
+      <c r="F147" s="12">
         <v>0.5</v>
       </c>
-      <c r="G147" s="8">
+      <c r="G147" s="7">
         <f t="shared" si="0"/>
         <v>3.8049999999999997</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A148" s="13" t="s">
+      <c r="A148" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B148" s="13">
+      <c r="B148" s="12">
         <v>2</v>
       </c>
-      <c r="C148" s="13">
+      <c r="C148" s="12">
         <v>0.6</v>
       </c>
-      <c r="D148" s="13">
+      <c r="D148" s="12">
         <v>3.6</v>
       </c>
-      <c r="E148" s="13">
+      <c r="E148" s="12">
         <v>0.1</v>
       </c>
-      <c r="F148" s="13">
+      <c r="F148" s="12">
         <v>1.7</v>
       </c>
-      <c r="G148" s="8">
+      <c r="G148" s="7">
         <f t="shared" si="0"/>
         <v>1.4349999999999998</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A149" s="13" t="s">
+      <c r="A149" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B149" s="13">
+      <c r="B149" s="12">
         <v>50</v>
       </c>
-      <c r="C149" s="13">
+      <c r="C149" s="12">
         <v>20</v>
       </c>
-      <c r="D149" s="13">
+      <c r="D149" s="12">
         <v>0</v>
       </c>
-      <c r="E149" s="13">
+      <c r="E149" s="12">
         <v>5</v>
       </c>
-      <c r="F149" s="13">
+      <c r="F149" s="12">
         <v>0</v>
       </c>
-      <c r="G149" s="8">
+      <c r="G149" s="7">
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A150" s="13" t="s">
+      <c r="A150" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B150" s="13">
+      <c r="B150" s="12">
         <v>8</v>
       </c>
-      <c r="C150" s="13">
+      <c r="C150" s="12">
         <v>0.6</v>
       </c>
-      <c r="D150" s="13">
+      <c r="D150" s="12">
         <v>10</v>
       </c>
-      <c r="E150" s="13">
+      <c r="E150" s="12">
         <v>0.5</v>
       </c>
-      <c r="F150" s="13">
+      <c r="F150" s="12">
         <v>1</v>
       </c>
-      <c r="G150" s="8">
+      <c r="G150" s="7">
         <f t="shared" si="0"/>
         <v>3.4249999999999998</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A151" s="13" t="s">
+      <c r="A151" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="B151" s="13">
+      <c r="B151" s="12">
         <v>6</v>
       </c>
-      <c r="C151" s="13">
+      <c r="C151" s="12">
         <v>2.4</v>
       </c>
-      <c r="D151" s="13">
+      <c r="D151" s="12">
         <v>28</v>
       </c>
-      <c r="E151" s="13">
+      <c r="E151" s="12">
         <v>0.2</v>
       </c>
-      <c r="F151" s="13">
+      <c r="F151" s="12">
         <v>0.1</v>
       </c>
-      <c r="G151" s="8">
+      <c r="G151" s="7">
         <f t="shared" si="0"/>
         <v>9.08</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A152" s="13" t="s">
+      <c r="A152" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="B152" s="13">
+      <c r="B152" s="12">
         <v>3</v>
       </c>
-      <c r="C152" s="13">
+      <c r="C152" s="12">
         <v>0.9</v>
       </c>
-      <c r="D152" s="13">
+      <c r="D152" s="12">
         <v>6.5</v>
       </c>
-      <c r="E152" s="13">
+      <c r="E152" s="12">
         <v>0.1</v>
       </c>
-      <c r="F152" s="13">
+      <c r="F152" s="12">
         <v>2.8</v>
       </c>
-      <c r="G152" s="8">
+      <c r="G152" s="7">
         <f t="shared" si="0"/>
         <v>2.4899999999999998</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A153" s="13" t="s">
+      <c r="A153" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B153" s="13">
+      <c r="B153" s="12">
         <v>12</v>
       </c>
-      <c r="C153" s="13">
+      <c r="C153" s="12">
         <v>2</v>
       </c>
-      <c r="D153" s="13">
+      <c r="D153" s="12">
         <v>4</v>
       </c>
-      <c r="E153" s="13">
+      <c r="E153" s="12">
         <v>20</v>
       </c>
-      <c r="F153" s="13">
+      <c r="F153" s="12">
         <v>3</v>
       </c>
-      <c r="G153" s="8">
+      <c r="G153" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A154" s="13" t="s">
+      <c r="A154" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B154" s="13">
+      <c r="B154" s="12">
         <v>2</v>
       </c>
-      <c r="C154" s="13">
+      <c r="C154" s="12">
         <v>0.9</v>
       </c>
-      <c r="D154" s="13">
+      <c r="D154" s="12">
         <v>10</v>
       </c>
-      <c r="E154" s="13">
+      <c r="E154" s="12">
         <v>0.2</v>
       </c>
-      <c r="F154" s="13">
+      <c r="F154" s="12">
         <v>5</v>
       </c>
-      <c r="G154" s="8">
+      <c r="G154" s="7">
         <f t="shared" si="0"/>
         <v>3.7949999999999999</v>
       </c>
-      <c r="K154" s="14"/>
+      <c r="K154" s="13"/>
     </row>
     <row r="155" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A155" s="13" t="s">
+      <c r="A155" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B155" s="13">
+      <c r="B155" s="12">
         <v>10</v>
       </c>
-      <c r="C155" s="13">
+      <c r="C155" s="12">
         <v>12</v>
       </c>
-      <c r="D155" s="13">
+      <c r="D155" s="12">
         <v>1</v>
       </c>
-      <c r="E155" s="13">
+      <c r="E155" s="12">
         <v>10</v>
       </c>
-      <c r="F155" s="13">
+      <c r="F155" s="12">
         <v>0</v>
       </c>
-      <c r="G155" s="8">
+      <c r="G155" s="7">
         <f t="shared" si="0"/>
         <v>6.8</v>
       </c>
-      <c r="K155" s="14"/>
+      <c r="K155" s="13"/>
     </row>
     <row r="156" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A156" s="13" t="s">
+      <c r="A156" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="B156" s="13">
+      <c r="B156" s="12">
         <v>3</v>
       </c>
-      <c r="C156" s="13">
+      <c r="C156" s="12">
         <v>1</v>
       </c>
-      <c r="D156" s="13">
+      <c r="D156" s="12">
         <v>3</v>
       </c>
-      <c r="E156" s="13">
+      <c r="E156" s="12">
         <v>0.2</v>
       </c>
-      <c r="F156" s="13">
+      <c r="F156" s="12">
         <v>0.5</v>
       </c>
-      <c r="G156" s="8">
+      <c r="G156" s="7">
         <f t="shared" si="0"/>
         <v>1.27</v>
       </c>
-      <c r="K156" s="14"/>
+      <c r="K156" s="13"/>
     </row>
     <row r="157" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A157" s="13" t="s">
+      <c r="A157" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B157" s="13">
+      <c r="B157" s="12">
         <v>7</v>
       </c>
-      <c r="C157" s="13">
+      <c r="C157" s="12">
         <v>10</v>
       </c>
-      <c r="D157" s="13">
+      <c r="D157" s="12">
         <v>60</v>
       </c>
-      <c r="E157" s="13">
+      <c r="E157" s="12">
         <v>2</v>
       </c>
-      <c r="F157" s="13">
+      <c r="F157" s="12">
         <v>5</v>
       </c>
-      <c r="G157" s="8">
+      <c r="G157" s="7">
         <f t="shared" si="0"/>
         <v>21.7</v>
       </c>
-      <c r="K157" s="14"/>
+      <c r="K157" s="13"/>
     </row>
     <row r="158" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A158" s="13" t="s">
+      <c r="A158" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B158" s="13">
+      <c r="B158" s="12">
         <v>15</v>
       </c>
-      <c r="C158" s="13">
+      <c r="C158" s="12">
         <v>1</v>
       </c>
-      <c r="D158" s="13">
+      <c r="D158" s="12">
         <v>3</v>
       </c>
-      <c r="E158" s="13">
+      <c r="E158" s="12">
         <v>20</v>
       </c>
-      <c r="F158" s="13">
+      <c r="F158" s="12">
         <v>2</v>
       </c>
-      <c r="G158" s="8">
+      <c r="G158" s="7">
         <f t="shared" si="0"/>
         <v>8.35</v>
       </c>
-      <c r="K158" s="14"/>
+      <c r="K158" s="13"/>
     </row>
     <row r="159" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A159" s="13" t="s">
+      <c r="A159" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B159" s="13">
+      <c r="B159" s="12">
         <v>5</v>
       </c>
-      <c r="C159" s="13">
+      <c r="C159" s="12">
         <v>0.3</v>
       </c>
-      <c r="D159" s="13">
+      <c r="D159" s="12">
         <v>4</v>
       </c>
-      <c r="E159" s="13">
+      <c r="E159" s="12">
         <v>0.2</v>
       </c>
-      <c r="F159" s="13">
+      <c r="F159" s="12">
         <v>0.5</v>
       </c>
-      <c r="G159" s="8">
+      <c r="G159" s="7">
         <f t="shared" si="0"/>
         <v>1.395</v>
       </c>
-      <c r="K159" s="14"/>
+      <c r="K159" s="13"/>
     </row>
     <row r="160" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A160" s="13" t="s">
+      <c r="A160" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="B160" s="13">
+      <c r="B160" s="12">
         <v>30</v>
       </c>
-      <c r="C160" s="13">
+      <c r="C160" s="12">
         <v>0.1</v>
       </c>
-      <c r="D160" s="13">
+      <c r="D160" s="12">
         <v>3</v>
       </c>
-      <c r="E160" s="13">
+      <c r="E160" s="12">
         <v>0</v>
       </c>
-      <c r="F160" s="13">
+      <c r="F160" s="12">
         <v>1</v>
       </c>
-      <c r="G160" s="8">
+      <c r="G160" s="7">
         <f t="shared" si="0"/>
         <v>1.0249999999999999</v>
       </c>
-      <c r="K160" s="14"/>
+      <c r="K160" s="13"/>
     </row>
     <row r="161" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A161" s="15" t="s">
+      <c r="A161" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B161" s="13">
+      <c r="B161" s="12">
         <v>6</v>
       </c>
-      <c r="C161" s="13">
+      <c r="C161" s="12">
         <v>10</v>
       </c>
-      <c r="D161" s="13">
+      <c r="D161" s="12">
         <v>15</v>
       </c>
-      <c r="E161" s="13">
+      <c r="E161" s="12">
         <v>0.8</v>
       </c>
-      <c r="F161" s="13">
+      <c r="F161" s="12">
         <v>1</v>
       </c>
-      <c r="G161" s="8">
+      <c r="G161" s="7">
         <f t="shared" si="0"/>
         <v>7.38</v>
       </c>
     </row>
     <row r="162" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A162" s="13" t="s">
+      <c r="A162" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B162" s="13">
+      <c r="B162" s="12">
         <v>1</v>
       </c>
-      <c r="C162" s="13">
+      <c r="C162" s="12">
         <v>1</v>
       </c>
-      <c r="D162" s="13">
+      <c r="D162" s="12">
         <v>1</v>
       </c>
-      <c r="E162" s="13">
+      <c r="E162" s="12">
         <v>1</v>
       </c>
-      <c r="F162" s="13">
+      <c r="F162" s="12">
         <v>1</v>
       </c>
-      <c r="G162" s="16">
+      <c r="G162" s="15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K162" s="14"/>
+      <c r="K162" s="13"/>
     </row>
     <row r="163" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A163" s="13" t="s">
+      <c r="A163" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="B163" s="13">
+      <c r="B163" s="12">
         <v>5</v>
       </c>
-      <c r="C163" s="13">
+      <c r="C163" s="12">
         <v>5</v>
       </c>
-      <c r="D163" s="13">
+      <c r="D163" s="12">
         <v>5</v>
       </c>
-      <c r="E163" s="13">
+      <c r="E163" s="12">
         <v>5</v>
       </c>
-      <c r="F163" s="13">
+      <c r="F163" s="12">
         <v>5</v>
       </c>
-      <c r="G163" s="16">
+      <c r="G163" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -5515,142 +5512,142 @@
       <c r="A164" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B164" s="13">
+      <c r="B164" s="12">
         <v>6</v>
       </c>
-      <c r="C164" s="13">
+      <c r="C164" s="12">
         <v>6</v>
       </c>
-      <c r="D164" s="13">
+      <c r="D164" s="12">
         <v>6</v>
       </c>
-      <c r="E164" s="13">
+      <c r="E164" s="12">
         <v>6</v>
       </c>
-      <c r="F164" s="13">
+      <c r="F164" s="12">
         <v>6</v>
       </c>
-      <c r="G164" s="16">
+      <c r="G164" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K164" s="14"/>
+      <c r="K164" s="13"/>
     </row>
     <row r="165" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A165" s="13" t="s">
+      <c r="A165" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="B165" s="13">
+      <c r="B165" s="12">
         <v>2</v>
       </c>
-      <c r="C165" s="13">
+      <c r="C165" s="12">
         <v>2</v>
       </c>
-      <c r="D165" s="13">
+      <c r="D165" s="12">
         <v>2</v>
       </c>
-      <c r="E165" s="13">
+      <c r="E165" s="12">
         <v>2</v>
       </c>
-      <c r="F165" s="13">
+      <c r="F165" s="12">
         <v>2</v>
       </c>
-      <c r="G165" s="16">
+      <c r="G165" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K165" s="14"/>
+      <c r="K165" s="13"/>
     </row>
     <row r="166" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>95</v>
       </c>
-      <c r="B166" s="17">
+      <c r="B166" s="16">
         <v>3</v>
       </c>
-      <c r="C166" s="17">
+      <c r="C166" s="16">
         <v>4</v>
       </c>
-      <c r="D166" s="17">
+      <c r="D166" s="16">
         <v>17</v>
       </c>
-      <c r="E166" s="17">
+      <c r="E166" s="16">
         <v>7</v>
       </c>
-      <c r="F166" s="17">
+      <c r="F166" s="16">
         <v>6</v>
       </c>
-      <c r="G166" s="18">
+      <c r="G166" s="17">
         <f t="shared" si="0"/>
         <v>9.1499999999999986</v>
       </c>
-      <c r="K166" s="14"/>
+      <c r="K166" s="13"/>
     </row>
     <row r="168" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K168" s="14"/>
+      <c r="K168" s="13"/>
     </row>
     <row r="169" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K169" s="14"/>
+      <c r="K169" s="13"/>
     </row>
     <row r="170" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K170" s="14"/>
+      <c r="K170" s="13"/>
     </row>
     <row r="171" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K171" s="14"/>
+      <c r="K171" s="13"/>
     </row>
     <row r="172" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K172" s="14"/>
+      <c r="K172" s="13"/>
     </row>
     <row r="173" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K173" s="14"/>
+      <c r="K173" s="13"/>
     </row>
     <row r="175" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K175" s="14"/>
+      <c r="K175" s="13"/>
     </row>
     <row r="178" spans="11:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K178" s="14"/>
+      <c r="K178" s="13"/>
     </row>
     <row r="180" spans="11:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K180" s="14"/>
+      <c r="K180" s="13"/>
     </row>
     <row r="181" spans="11:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K181" s="14"/>
+      <c r="K181" s="13"/>
     </row>
     <row r="183" spans="11:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K183" s="14"/>
+      <c r="K183" s="13"/>
     </row>
     <row r="186" spans="11:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K186" s="14"/>
+      <c r="K186" s="13"/>
     </row>
     <row r="188" spans="11:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K188" s="14"/>
+      <c r="K188" s="13"/>
     </row>
     <row r="189" spans="11:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K189" s="14"/>
+      <c r="K189" s="13"/>
     </row>
     <row r="192" spans="11:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K192" s="14"/>
+      <c r="K192" s="13"/>
     </row>
     <row r="193" spans="11:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K193" s="14"/>
+      <c r="K193" s="13"/>
     </row>
     <row r="194" spans="11:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K194" s="14"/>
+      <c r="K194" s="13"/>
     </row>
     <row r="195" spans="11:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K195" s="14"/>
+      <c r="K195" s="13"/>
     </row>
     <row r="196" spans="11:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K196" s="14"/>
+      <c r="K196" s="13"/>
     </row>
     <row r="197" spans="11:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K197" s="14"/>
+      <c r="K197" s="13"/>
     </row>
     <row r="198" spans="11:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K198" s="14"/>
+      <c r="K198" s="13"/>
     </row>
     <row r="199" spans="11:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K199" s="14"/>
+      <c r="K199" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5665,7 +5662,7 @@
   <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5721,7 +5718,7 @@
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" cm="1">
+      <c r="G2" cm="1">
         <f t="array" ref="G2">SUM(VLOOKUP(B2:F2, Ingredients!$A$2:$G$190, 7, FALSE))</f>
         <v>23.216499999999996</v>
       </c>
@@ -5745,9 +5742,9 @@
       <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" cm="1">
         <f t="array" ref="G3">SUM(VLOOKUP(B3:F3, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>8.01</v>
+        <v>28.654</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14" x14ac:dyDescent="0.3">
@@ -5769,9 +5766,9 @@
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" cm="1">
         <f t="array" ref="G4">SUM(VLOOKUP(B4:F4, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>6.75</v>
+        <v>28.3765</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14" x14ac:dyDescent="0.3">
@@ -5793,11 +5790,11 @@
       <c r="F5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" cm="1">
         <f t="array" ref="G5">SUM(VLOOKUP(B5:F5, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>7.38</v>
-      </c>
-      <c r="I5" s="4"/>
+        <v>47.0745</v>
+      </c>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -5818,9 +5815,9 @@
       <c r="F6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" cm="1">
         <f t="array" ref="G6">SUM(VLOOKUP(B6:F6, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>6.75</v>
+        <v>30.936499999999999</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14" x14ac:dyDescent="0.3">
@@ -5842,9 +5839,9 @@
       <c r="F7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" cm="1">
         <f t="array" ref="G7">SUM(VLOOKUP(B7:F7, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>9.9</v>
+        <v>36.112500000000004</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.3">
@@ -5866,9 +5863,9 @@
       <c r="F8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" cm="1">
         <f t="array" ref="G8">SUM(VLOOKUP(B8:F8, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>8.01</v>
+        <v>36.417500000000004</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14" x14ac:dyDescent="0.3">
@@ -5890,9 +5887,9 @@
       <c r="F9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" cm="1">
         <f t="array" ref="G9">SUM(VLOOKUP(B9:F9, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>6.7144999999999992</v>
+        <v>27.4085</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14" x14ac:dyDescent="0.3">
@@ -5914,9 +5911,9 @@
       <c r="F10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" cm="1">
         <f t="array" ref="G10">SUM(VLOOKUP(B10:F10, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>8.01</v>
+        <v>18.308499999999999</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14" x14ac:dyDescent="0.3">
@@ -5938,9 +5935,9 @@
       <c r="F11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" cm="1">
         <f t="array" ref="G11">SUM(VLOOKUP(B11:F11, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>10.659500000000001</v>
+        <v>31.465999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14" x14ac:dyDescent="0.3">
@@ -5962,9 +5959,9 @@
       <c r="F12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" cm="1">
         <f t="array" ref="G12">SUM(VLOOKUP(B12:F12, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>10.111499999999999</v>
+        <v>21.243000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14" x14ac:dyDescent="0.3">
@@ -5986,9 +5983,9 @@
       <c r="F13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" cm="1">
         <f t="array" ref="G13">SUM(VLOOKUP(B13:F13, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>8.01</v>
+        <v>38.823499999999996</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14" x14ac:dyDescent="0.3">
@@ -6010,9 +6007,9 @@
       <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" cm="1">
         <f t="array" ref="G14">SUM(VLOOKUP(B14:F14, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>10.162500000000001</v>
+        <v>27.295000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14" x14ac:dyDescent="0.3">
@@ -6034,9 +6031,9 @@
       <c r="F15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" cm="1">
         <f t="array" ref="G15">SUM(VLOOKUP(B15:F15, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>8.01</v>
+        <v>28.840000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.3">
@@ -6058,9 +6055,9 @@
       <c r="F16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" cm="1">
         <f t="array" ref="G16">SUM(VLOOKUP(B16:F16, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>2.4714999999999998</v>
+        <v>26.562999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6082,9 +6079,9 @@
       <c r="F17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" cm="1">
         <f t="array" ref="G17">SUM(VLOOKUP(B17:F17, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>1</v>
+        <v>18.557499999999997</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6106,9 +6103,9 @@
       <c r="F18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" cm="1">
         <f t="array" ref="G18">SUM(VLOOKUP(B18:F18, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>6.7469999999999999</v>
+        <v>40.729999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6130,9 +6127,9 @@
       <c r="F19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" cm="1">
         <f t="array" ref="G19">SUM(VLOOKUP(B19:F19, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>10.162500000000001</v>
+        <v>23.138999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6154,9 +6151,9 @@
       <c r="F20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" cm="1">
         <f t="array" ref="G20">SUM(VLOOKUP(B20:F20, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>6.7469999999999999</v>
+        <v>27.193999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6178,9 +6175,9 @@
       <c r="F21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" cm="1">
         <f t="array" ref="G21">SUM(VLOOKUP(B21:F21, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>8.01</v>
+        <v>20.914999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6202,9 +6199,9 @@
       <c r="F22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" cm="1">
         <f t="array" ref="G22">SUM(VLOOKUP(B22:F22, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>10.659500000000001</v>
+        <v>31.546999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6226,9 +6223,9 @@
       <c r="F23" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" cm="1">
         <f t="array" ref="G23">SUM(VLOOKUP(B23:F23, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>8.01</v>
+        <v>23.6495</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6250,9 +6247,9 @@
       <c r="F24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" cm="1">
         <f t="array" ref="G24">SUM(VLOOKUP(B24:F24, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>10.659500000000001</v>
+        <v>42.505499999999998</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6274,9 +6271,9 @@
       <c r="F25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" cm="1">
         <f t="array" ref="G25">SUM(VLOOKUP(B25:F25, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>3.8130000000000002</v>
+        <v>18.685499999999998</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6298,9 +6295,9 @@
       <c r="F26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" cm="1">
         <f t="array" ref="G26">SUM(VLOOKUP(B26:F26, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>2.7605</v>
+        <v>32.4465</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6322,9 +6319,9 @@
       <c r="F27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" cm="1">
         <f t="array" ref="G27">SUM(VLOOKUP(B27:F27, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>9.5620000000000012</v>
+        <v>28.084</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6346,9 +6343,9 @@
       <c r="F28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" cm="1">
         <f t="array" ref="G28">SUM(VLOOKUP(B28:F28, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>1.3185</v>
+        <v>24.104000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6370,9 +6367,9 @@
       <c r="F29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" cm="1">
         <f t="array" ref="G29">SUM(VLOOKUP(B29:F29, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>4.8579999999999997</v>
+        <v>28.197500000000002</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6394,7 +6391,7 @@
       <c r="F30" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G30" s="3" cm="1">
+      <c r="G30" cm="1">
         <f t="array" ref="G30">SUM(VLOOKUP(B30:F30, Ingredients!$A$2:$G$190, 7, FALSE))</f>
         <v>23.378</v>
       </c>
@@ -6418,9 +6415,9 @@
       <c r="F31" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" cm="1">
         <f t="array" ref="G31">SUM(VLOOKUP(B31:F31, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>7.6204999999999998</v>
+        <v>38.558499999999995</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6442,9 +6439,9 @@
       <c r="F32" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" cm="1">
         <f t="array" ref="G32">SUM(VLOOKUP(B32:F32, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>7.6204999999999998</v>
+        <v>52.022500000000001</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6466,9 +6463,9 @@
       <c r="F33" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" cm="1">
         <f t="array" ref="G33">SUM(VLOOKUP(B33:F33, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>10.659500000000001</v>
+        <v>44.045500000000004</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6490,9 +6487,9 @@
       <c r="F34" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" cm="1">
         <f t="array" ref="G34">SUM(VLOOKUP(B34:F34, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>4.9764999999999997</v>
+        <v>33.207999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6514,9 +6511,9 @@
       <c r="F35" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" cm="1">
         <f t="array" ref="G35">SUM(VLOOKUP(B35:F35, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>10.579499999999999</v>
+        <v>51.396999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6538,9 +6535,9 @@
       <c r="F36" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" cm="1">
         <f t="array" ref="G36">SUM(VLOOKUP(B36:F36, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>8.01</v>
+        <v>23.895</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6562,9 +6559,9 @@
       <c r="F37" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" cm="1">
         <f t="array" ref="G37">SUM(VLOOKUP(B37:F37, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>6.7144999999999992</v>
+        <v>21.592999999999996</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6586,9 +6583,9 @@
       <c r="F38" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" cm="1">
         <f t="array" ref="G38">SUM(VLOOKUP(B38:F38, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>2.7419999999999995</v>
+        <v>46.911000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6610,9 +6607,9 @@
       <c r="F39" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" cm="1">
         <f t="array" ref="G39">SUM(VLOOKUP(B39:F39, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>10.75</v>
+        <v>68.610499999999988</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6634,9 +6631,9 @@
       <c r="F40" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" cm="1">
         <f t="array" ref="G40">SUM(VLOOKUP(B40:F40, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>2.1055000000000001</v>
+        <v>54.804000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6658,9 +6655,9 @@
       <c r="F41" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" cm="1">
         <f t="array" ref="G41">SUM(VLOOKUP(B41:F41, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>1.982</v>
+        <v>61.037999999999997</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6682,9 +6679,9 @@
       <c r="F42" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" cm="1">
         <f t="array" ref="G42">SUM(VLOOKUP(B42:F42, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>4.8579999999999997</v>
+        <v>59.728000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6706,9 +6703,9 @@
       <c r="F43" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" cm="1">
         <f t="array" ref="G43">SUM(VLOOKUP(B43:F43, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>10.162500000000001</v>
+        <v>60.104999999999997</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6730,9 +6727,9 @@
       <c r="F44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" cm="1">
         <f t="array" ref="G44">SUM(VLOOKUP(B44:F44, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>13.25</v>
+        <v>23.94</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6754,9 +6751,9 @@
       <c r="F45" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" cm="1">
         <f t="array" ref="G45">SUM(VLOOKUP(B45:F45, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>8.01</v>
+        <v>27.520499999999998</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6778,9 +6775,9 @@
       <c r="F46" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" cm="1">
         <f t="array" ref="G46">SUM(VLOOKUP(B46:F46, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>8.4</v>
+        <v>18.759500000000003</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6802,9 +6799,9 @@
       <c r="F47" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" cm="1">
         <f t="array" ref="G47">SUM(VLOOKUP(B47:F47, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>5.35</v>
+        <v>55.473999999999997</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6826,9 +6823,9 @@
       <c r="F48" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" cm="1">
         <f t="array" ref="G48">SUM(VLOOKUP(B48:F48, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>4.8579999999999997</v>
+        <v>53.518000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6850,9 +6847,9 @@
       <c r="F49" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" cm="1">
         <f t="array" ref="G49">SUM(VLOOKUP(B49:F49, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>8.4</v>
+        <v>51.504499999999993</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6874,9 +6871,9 @@
       <c r="F50" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" cm="1">
         <f t="array" ref="G50">SUM(VLOOKUP(B50:F50, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>10.659500000000001</v>
+        <v>60.634499999999996</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6898,9 +6895,9 @@
       <c r="F51" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" cm="1">
         <f t="array" ref="G51">SUM(VLOOKUP(B51:F51, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>6.7144999999999992</v>
+        <v>53.283500000000004</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6922,9 +6919,9 @@
       <c r="F52" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" cm="1">
         <f t="array" ref="G52">SUM(VLOOKUP(B52:F52, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>10.659500000000001</v>
+        <v>55.6935</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6946,9 +6943,9 @@
       <c r="F53" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" cm="1">
         <f t="array" ref="G53">SUM(VLOOKUP(B53:F53, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>6.7469999999999999</v>
+        <v>70.735500000000002</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6958,21 +6955,21 @@
       <c r="B54" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" cm="1">
         <f t="array" ref="G54">SUM(VLOOKUP(B54:F54, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>1.4435000000000002</v>
+        <v>18.660000000000004</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -6982,28 +6979,28 @@
       <c r="B55" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" cm="1">
         <f t="array" ref="G55">SUM(VLOOKUP(B55:F55, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>3.9169999999999994</v>
+        <v>19.308499999999995</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -7012,73 +7009,73 @@
       <c r="D56" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="4" t="s">
         <v>57</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G56" cm="1">
         <f t="array" ref="G56">SUM(VLOOKUP(B56:F56, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>8.798</v>
+        <v>29.176500000000001</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" cm="1">
         <f t="array" ref="G57">SUM(VLOOKUP(B57:F57, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>2.4899999999999998</v>
+        <v>14.2835</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="4" t="s">
         <v>159</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" cm="1">
         <f t="array" ref="G58">SUM(VLOOKUP(B58:F58, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>2.4514999999999998</v>
+        <v>24.528500000000001</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -7087,12 +7084,12 @@
       <c r="E59" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F59" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" cm="1">
         <f t="array" ref="G59">SUM(VLOOKUP(B59:F59, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>12.401999999999999</v>
+        <v>33.621999999999993</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -7102,69 +7099,69 @@
       <c r="B60" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F60" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60" cm="1">
         <f t="array" ref="G60">SUM(VLOOKUP(B60:F60, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>3.6774999999999998</v>
+        <v>26.420499999999997</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G61" cm="1">
         <f t="array" ref="G61">SUM(VLOOKUP(B61:F61, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>10.659500000000001</v>
+        <v>17.242500000000003</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" cm="1">
         <f t="array" ref="G62">SUM(VLOOKUP(B62:F62, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>8.01</v>
+        <v>25.092500000000001</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -7174,45 +7171,45 @@
       <c r="B63" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G63" cm="1">
         <f t="array" ref="G63">SUM(VLOOKUP(B63:F63, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>10.659500000000001</v>
+        <v>30.420999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F64" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G64" cm="1">
         <f t="array" ref="G64">SUM(VLOOKUP(B64:F64, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>10.659500000000001</v>
+        <v>33.380499999999998</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -7222,189 +7219,189 @@
       <c r="B65" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G65" cm="1">
         <f t="array" ref="G65">SUM(VLOOKUP(B65:F65, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>3.4820000000000002</v>
+        <v>11.986499999999999</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66" cm="1">
         <f t="array" ref="G66">SUM(VLOOKUP(B66:F66, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>9.08</v>
+        <v>23.273500000000002</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F67" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G67" cm="1">
         <f t="array" ref="G67">SUM(VLOOKUP(B67:F67, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>2.1055000000000001</v>
+        <v>19.989000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E68" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F68" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G68" cm="1">
         <f t="array" ref="G68">SUM(VLOOKUP(B68:F68, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>8.01</v>
+        <v>30.003</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="F69" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G69" cm="1">
         <f t="array" ref="G69">SUM(VLOOKUP(B69:F69, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>6.7144999999999992</v>
+        <v>29.56</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E70" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F70" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G70" cm="1">
         <f t="array" ref="G70">SUM(VLOOKUP(B70:F70, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>8.01</v>
+        <v>33.642499999999998</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E71" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="F71" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G71" cm="1">
         <f t="array" ref="G71">SUM(VLOOKUP(B71:F71, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>10.579499999999999</v>
+        <v>19.201999999999998</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E72" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="F72" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" cm="1">
         <f t="array" ref="G72">SUM(VLOOKUP(B72:F72, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>7.2684999999999986</v>
+        <v>28.9345</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -7426,9 +7423,9 @@
       <c r="F73" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G73" s="3">
+      <c r="G73" cm="1">
         <f t="array" ref="G73">SUM(VLOOKUP(B73:F73, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>7.6204999999999998</v>
+        <v>28.3645</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -7450,9 +7447,9 @@
       <c r="F74" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="G74" s="3">
+      <c r="G74" cm="1">
         <f t="array" ref="G74">SUM(VLOOKUP(B74:F74, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>7.2684999999999986</v>
+        <v>28.186999999999998</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -7474,9 +7471,9 @@
       <c r="F75" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G75" s="3">
+      <c r="G75" cm="1">
         <f t="array" ref="G75">SUM(VLOOKUP(B75:F75, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>6.8</v>
+        <v>26.945</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -7498,9 +7495,9 @@
       <c r="F76" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G76" cm="1">
         <f t="array" ref="G76">SUM(VLOOKUP(B76:F76, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>8.01</v>
+        <v>54.13</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -7522,9 +7519,9 @@
       <c r="F77" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G77" s="3">
+      <c r="G77" cm="1">
         <f t="array" ref="G77">SUM(VLOOKUP(B77:F77, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>7.2684999999999986</v>
+        <v>15.736499999999999</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -7546,9 +7543,9 @@
       <c r="F78" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G78" cm="1">
         <f t="array" ref="G78">SUM(VLOOKUP(B78:F78, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>8.01</v>
+        <v>22.665500000000002</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -7570,9 +7567,9 @@
       <c r="F79" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="G79" s="3">
+      <c r="G79" cm="1">
         <f t="array" ref="G79">SUM(VLOOKUP(B79:F79, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>2.1055000000000001</v>
+        <v>39.823</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -7594,9 +7591,9 @@
       <c r="F80" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G80" s="3">
+      <c r="G80" cm="1">
         <f t="array" ref="G80">SUM(VLOOKUP(B80:F80, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>6.7469999999999999</v>
+        <v>23.108499999999999</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -7618,9 +7615,9 @@
       <c r="F81" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G81" cm="1">
         <f t="array" ref="G81">SUM(VLOOKUP(B81:F81, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>1.0249999999999999</v>
+        <v>18.051000000000002</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -7642,9 +7639,9 @@
       <c r="F82" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="G82" s="3">
+      <c r="G82" cm="1">
         <f t="array" ref="G82">SUM(VLOOKUP(B82:F82, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>9.3044999999999991</v>
+        <v>30.148499999999999</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -7666,9 +7663,9 @@
       <c r="F83" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" cm="1">
         <f t="array" ref="G83">SUM(VLOOKUP(B83:F83, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>7.6204999999999998</v>
+        <v>74.83</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -7690,9 +7687,9 @@
       <c r="F84" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G84" cm="1">
         <f t="array" ref="G84">SUM(VLOOKUP(B84:F84, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>13</v>
+        <v>23.7685</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -7714,9 +7711,9 @@
       <c r="F85" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G85" s="3">
+      <c r="G85" cm="1">
         <f t="array" ref="G85">SUM(VLOOKUP(B85:F85, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>10.360999999999999</v>
+        <v>56.4405</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -7738,9 +7735,9 @@
       <c r="F86" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G86" s="3">
+      <c r="G86" cm="1">
         <f t="array" ref="G86">SUM(VLOOKUP(B86:F86, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>7.6204999999999998</v>
+        <v>31.817999999999998</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -7762,9 +7759,9 @@
       <c r="F87" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G87" s="3">
+      <c r="G87" cm="1">
         <f t="array" ref="G87">SUM(VLOOKUP(B87:F87, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>1.7854999999999999</v>
+        <v>43.560500000000005</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -7786,9 +7783,9 @@
       <c r="F88" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G88" s="3">
+      <c r="G88" cm="1">
         <f t="array" ref="G88">SUM(VLOOKUP(B88:F88, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>9.9</v>
+        <v>69.963999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -7810,9 +7807,9 @@
       <c r="F89" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89" cm="1">
         <f t="array" ref="G89">SUM(VLOOKUP(B89:F89, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>1.7854999999999999</v>
+        <v>12.044999999999998</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -7834,9 +7831,9 @@
       <c r="F90" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G90" s="3">
+      <c r="G90" cm="1">
         <f t="array" ref="G90">SUM(VLOOKUP(B90:F90, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>15.75</v>
+        <v>24.045500000000001</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -7858,9 +7855,9 @@
       <c r="F91" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" cm="1">
         <f t="array" ref="G91">SUM(VLOOKUP(B91:F91, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>13</v>
+        <v>26.366499999999998</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -7882,9 +7879,9 @@
       <c r="F92" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G92" cm="1">
         <f t="array" ref="G92">SUM(VLOOKUP(B92:F92, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>13.51</v>
+        <v>38.368500000000004</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -7906,9 +7903,9 @@
       <c r="F93" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G93" s="3">
+      <c r="G93" cm="1">
         <f t="array" ref="G93">SUM(VLOOKUP(B93:F93, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>7.6204999999999998</v>
+        <v>30.1755</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -7930,9 +7927,9 @@
       <c r="F94" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" cm="1">
         <f t="array" ref="G94">SUM(VLOOKUP(B94:F94, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>13.7</v>
+        <v>39.64</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -7954,9 +7951,9 @@
       <c r="F95" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G95" s="3">
+      <c r="G95" cm="1">
         <f t="array" ref="G95">SUM(VLOOKUP(B95:F95, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>10.111499999999999</v>
+        <v>23.044499999999999</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -7978,9 +7975,9 @@
       <c r="F96" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G96" s="3">
+      <c r="G96" cm="1">
         <f t="array" ref="G96">SUM(VLOOKUP(B96:F96, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>13.51</v>
+        <v>31.705500000000001</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -8002,9 +7999,9 @@
       <c r="F97" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G97" s="3">
+      <c r="G97" cm="1">
         <f t="array" ref="G97">SUM(VLOOKUP(B97:F97, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>7.6204999999999998</v>
+        <v>42.227499999999992</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -8026,9 +8023,9 @@
       <c r="F98" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G98" s="3">
+      <c r="G98" cm="1">
         <f t="array" ref="G98">SUM(VLOOKUP(B98:F98, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>11.2</v>
+        <v>43.09</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -8050,9 +8047,9 @@
       <c r="F99" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G99" s="3">
+      <c r="G99" cm="1">
         <f t="array" ref="G99">SUM(VLOOKUP(B99:F99, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>5.0999999999999996</v>
+        <v>20.1845</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -8074,9 +8071,9 @@
       <c r="F100" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" cm="1">
         <f t="array" ref="G100">SUM(VLOOKUP(B100:F100, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>13.5</v>
+        <v>27.064499999999999</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -8098,9 +8095,9 @@
       <c r="F101" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101" cm="1">
         <f t="array" ref="G101">SUM(VLOOKUP(B101:F101, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>12.75</v>
+        <v>25.399000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -8122,9 +8119,9 @@
       <c r="F102" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102" cm="1">
         <f t="array" ref="G102">SUM(VLOOKUP(B102:F102, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>14.5</v>
+        <v>39.188499999999998</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -8146,9 +8143,9 @@
       <c r="F103" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G103" s="3">
+      <c r="G103" cm="1">
         <f t="array" ref="G103">SUM(VLOOKUP(B103:F103, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>16</v>
+        <v>30.200999999999997</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -8170,9 +8167,9 @@
       <c r="F104" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G104" s="3">
+      <c r="G104" cm="1">
         <f t="array" ref="G104">SUM(VLOOKUP(B104:F104, Ingredients!$A$2:$G$190, 7, FALSE))</f>
-        <v>4.45</v>
+        <v>15.439</v>
       </c>
     </row>
   </sheetData>
